--- a/TC-ngày-copy.xlsx
+++ b/TC-ngày-copy.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="207">
   <si>
     <t>Account name</t>
   </si>
@@ -62,49 +62,406 @@
     <t>This Grandpa Daddy Belongs To - Gift For Dad, Father, Grandfather - Personalized Tape Measure_VideoAdsR_TMDT1098HEL982WP_130424</t>
   </si>
   <si>
+    <t>Change to US_Target phụ_WW_This Grandpa Daddy Belongs To - Gift For Dad, Father, Grandfather - Personalized Tape Measure</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>7-day click, 1-day view or 1-day engaged view</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>2024-05-23</t>
+  </si>
+  <si>
+    <t>Custom Photo Drive Safe - Gift For Couples, Besties, Dad, Mom, Family - Personalized Acrylic Car Hanger_VideoAds_AHNV777NAH2980WP_190124</t>
+  </si>
+  <si>
+    <t>07/03_Target Gift_WW_Custom Photo Drive Safe - Gift For Couples, Besties, Dad, Mom, Family - Personalized Acrylic Car Hanger</t>
+  </si>
+  <si>
+    <t>08/05_Target Parent_US_This Grandpa Daddy Belongs To - Gift For Dad, Father, Grandfather - Personalized Tape Measure - Copy</t>
+  </si>
+  <si>
+    <t>I Miss You - Memorial Gift For Pet Lovers, Dog Mom, Dog Dad, Cat Mom, Cat Dad - Personalized Paw Shaped Acrylic Plaque_VideoAds_PWYN213ELE2516WP_191023</t>
+  </si>
+  <si>
+    <t>Target chính_WW_I Miss You - Memorial Gift For Pet Lovers, Dog Mom, Dog Dad, Cat Mom, Cat Dad - Personalized Paw Shaped Acrylic Plaque</t>
+  </si>
+  <si>
+    <t>7-day click or 1-day view</t>
+  </si>
+  <si>
+    <t>Custom Photo Dear Dad Thank You For Teaching Me - Gift For Dad, Father, Grandpa, Sport Fans - Personalized Baseball, Softball_VideoAdsR_BBTN1241ELE3189WP_100524</t>
+  </si>
+  <si>
+    <t>Target chính_US_Custom Photo Dear Dad Thank You For Teaching Me - Gift For Dad, Father, Grandpa, Sport Fans - Personalized Baseball, Softball</t>
+  </si>
+  <si>
+    <t>08/05_Target Grandparent_US_This Grandpa Daddy Belongs To - Gift For Dad, Father, Grandfather - Personalized Tape Measure - Copy</t>
+  </si>
+  <si>
+    <t>I Miss You I Know - Memorial Gift For Family, Friends, Siblings - Personalized Acrylic Car Hanger_VideoAds_AHBD1025ELE2801WP_150124</t>
+  </si>
+  <si>
+    <t>Target phụ_WW_I Miss You I Know - Memorial Gift For Family, Friends, Siblings - Personalized Acrylic Car Hanger</t>
+  </si>
+  <si>
+    <t>Advantage+ shopping campaign_Top Sale_31/03</t>
+  </si>
+  <si>
+    <t>Advantage+ shopping campaign 30/03/2023 Ad set</t>
+  </si>
+  <si>
+    <t>A Crazy Plant Lady &amp; Her Spoiled Rotten Dogs - Backyard Sign, Gift For Gardening Lovers, Gardeners, Dog Lovers - Personalized Classic Metal Signs_VideoAdsR_MSNV889NAH3361WP_240424</t>
+  </si>
+  <si>
+    <t>Target chính_WW_A Crazy Plant Lady &amp; Her Spoiled Rotten Dogs - Backyard Sign, Gift For Gardening Lovers, Gardeners, Dog Lovers - Personalized Classic Metal Signs</t>
+  </si>
+  <si>
+    <t>This Awesome Daddy Belongs To - Birthday, Loving Gift For Dad, Father, Grandfather, Grandpa - Personalized Tape Measure_VideoAdsR_TMPT1138HEL981WP_250424</t>
+  </si>
+  <si>
+    <t>Target phụ_WW_This Awesome Daddy Belongs To - Birthday, Loving Gift For Dad, Father, Grandfather, Grandpa - Personalized Tape Measure</t>
+  </si>
+  <si>
+    <t>Cartoon Bestie - Birthday, Loving Gift For Friend, Sister, Brother - Personalized Acrylic Shaking Stand_VideoAds_KSNV774HAL1877WP_160124</t>
+  </si>
+  <si>
+    <t>20/03/24_Target 45+_WW_Cartoon Bestie - Birthday, Loving Gift For Friend, Sister, Brother - Personalized Acrylic Shaking Stand - Copy</t>
+  </si>
+  <si>
+    <t>TC WP Co 02</t>
+  </si>
+  <si>
+    <t>Couple Kissing - Anniversary Gift For Couples - Personalized Cutout Acrylic Keychain_VideoAds_CKYN284ELE2663WP_121223</t>
+  </si>
+  <si>
+    <t>Target phụ_WW_Couple Kissing - Anniversary Gift For Couples - Personalized Cutout Acrylic Keychain</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Custom Photo Drive Safe - Gift For Couples, Besties, Dad, Mom, Family - Personalized Acrylic Car Hanger</t>
+  </si>
+  <si>
+    <t>Post 2_A Crazy Plant Lady &amp; Her Spoiled Rotten Dogs - Backyard Sign, Gift For Gardening Lovers, Gardeners, Dog Lovers - Personalized Classic Metal Signs_VideoAdsR_MSNV889NAH3361WP_240424</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Custom Photo Drive Safe Daddy - Birthday, Loving Gift For Dad, Father, Papa, Grandpa - Personalized Acrylic Tag Keychain_VideoAdsR_AGYN458ELE3144WP_170424</t>
+  </si>
+  <si>
+    <t>Target phụ_WW_Custom Photo Drive Safe Daddy - Birthday, Loving Gift For Dad, Father, Papa, Grandpa - Personalized Acrylic Tag Keychain</t>
+  </si>
+  <si>
+    <t>This Awesome Dad Grandpa Belongs To - Gift For Daddy, Father, Grandfather - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug_VideoAdsR_EMDT1116HEL1019WP_250424</t>
+  </si>
+  <si>
+    <t>Target phụ_WW_This Awesome Dad Grandpa Belongs To - Gift For Daddy, Father, Grandfather - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug</t>
+  </si>
+  <si>
+    <t>You Belived You Could So You Did - Graduation Gift For Daughter, Son - Personalized Pillow_VideoAdsR_PLNT233DIL693WP_040524</t>
+  </si>
+  <si>
+    <t>Target chính_WW_You Belived You Could So You Did - Graduation Gift For Daughter, Son - Personalized Pillow</t>
+  </si>
+  <si>
+    <t>Target chính_US_I Miss You I Know - Memorial Gift For Family, Friends, Siblings - Personalized Acrylic Car Hanger</t>
+  </si>
+  <si>
+    <t>Dog Human Fist Bump - Gift For Dog Dad, Dog Lovers - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug_VideoAdsR_EMNN443HEL1034WP_100524</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Dog Human Fist Bump - Gift For Dog Dad, Dog Lovers - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug</t>
+  </si>
+  <si>
+    <t>3D Cracked Wall Reading Girl - Gift For Book Lovers - Personalized White Edge-to-Edge Mug_VideoAdsR_EMPT1135NGO2186WP_170424</t>
+  </si>
+  <si>
+    <t>Target chính_WW_3D Cracked Wall Reading Girl - Gift For Book Lovers - Personalized White Edge-to-Edge Mug</t>
+  </si>
+  <si>
+    <t>Just A Girl Boy Who Loves Cruising - Gift For Traveling Lovers - Personalized Custom Luggage Cover_VideoAds_LCVA475ELE1453WP_0902</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Just A Girl Boy Who Loves Cruising - Gift For Traveling Lovers - Personalized Custom Luggage Cover</t>
+  </si>
+  <si>
+    <t>Reopen 17/05/24_We Used To Lived In Your Balls - Gift For Fathers, Dad - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug_VideoAdsR_EMHC313NGO2194WP_190424</t>
+  </si>
+  <si>
+    <t>Change to US_Target chính_WW_We Used To Lived In Your Balls - Gift For Fathers, Dad - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug</t>
+  </si>
+  <si>
+    <t>You And Me And The Dog Cat - Gift For Pet Lovers - Personalized Pillow_VideoAds_PLDT879NGO1706WP_201023</t>
+  </si>
+  <si>
+    <t>Target chính_WW_You And Me And The Dog Cat - Gift For Pet Lovers - Personalized Pillow</t>
+  </si>
+  <si>
+    <t>I'm A Professional Grandma - Funny, Retirement Gift For Grandma, Mom, Nana, Gigi - Personalized T Shirt_VideoAdsR_TSVA809NAH3281WP_100424</t>
+  </si>
+  <si>
+    <t>All WW_I'm A Professional Grandma - Funny, Retirement Gift For Grandma, Mom, Nana, Gigi - Personalized T Shirt - Copy</t>
+  </si>
+  <si>
+    <t>You &amp; Me And The Dogs Camping Husband Wife - Couple Gift - Personalized Custom Flag_VideoAds_FLTN615NAH1136WP_2012</t>
+  </si>
+  <si>
+    <t>Target chính_WW_You &amp; Me And The Dogs Camping Husband Wife - Couple Gift - Personalized Custom Flag</t>
+  </si>
+  <si>
+    <t>08/05/24_Target Garden Interest_US_A Crazy Plant Lady &amp; Her Spoiled Rotten Dogs - Backyard Sign, Gift For Gardening Lovers, Gardeners, Dog Lovers - Personalized Classic Metal Signs</t>
+  </si>
+  <si>
+    <t>Cartoon Better Than Being Your Mother Father - Gift For Daughter, Gift For Son - Personalized Mug_VideoAdsR_MGTK255CIN2361WP_080524</t>
+  </si>
+  <si>
+    <t>Target chính_US_Cartoon Better Than Being Your Mother Father - Gift For Daughter, Gift For Son - Personalized Mug</t>
+  </si>
+  <si>
+    <t>Custom Photo 3D Cracked Pet Face - Gift For Dog Lovers - Personalized Decor Decal_VideoAdsR_DEDT1095NGO2188WP_130424</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Custom Photo 3D Cracked Pet Face - Gift For Dog Lovers - Personalized Decor Decal</t>
+  </si>
+  <si>
+    <t>Just A Girl Boy Who Loves Traveling - Gift For Traveling Lovers - Personalized Custom Luggage Cover_VideoAds_LCVA464ELE1415WP_0902</t>
+  </si>
+  <si>
+    <t>Target chính_WW-US_Just A Girl Boy Who Loves Traveling - Gift For Traveling Lovers - Personalized Custom Luggage Cover</t>
+  </si>
+  <si>
+    <t>Custom Photo I'll Carry You - Memorial Gift For Family, Siblings, Friends - Personalized Aluminum Keychain_VideoAds_LDTS309NAH2750WP_201123</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Custom Photo I'll Carry You - Memorial Gift For Family, Siblings, Friends - Personalized Aluminum Keychain</t>
+  </si>
+  <si>
+    <t>Family Bears - Gift For Parents, Father - Personalized Custom Shaped Wooden Puzzle_VideoAdsR_WZAH640ELE3117WP_120424</t>
+  </si>
+  <si>
+    <t>All us_Family Bears - Gift For Parents, Father - Personalized Custom Shaped Wooden Puzzle</t>
+  </si>
+  <si>
+    <t>Hand In Hand, I Will Always Protect You - Birthday, Loving Gift For Mom, Dad, Papa, Nana, Grandma, Grandpa - Personalized Custom Mug_VideoAdsR_MGVT198HAL1233WP_120424</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Hand In Hand, I Will Always Protect You - Birthday, Loving Gift For Mom, Dad, Papa, Nana, Grandma, Grandpa - Personalized Custom Mug</t>
+  </si>
+  <si>
+    <t>Family Couple The Day I Met You - Couple Gift - Personalized Custom Tumbler_VideoAds_TUBD556ELE1421WP_1911</t>
+  </si>
+  <si>
+    <t>All us_Family Couple The Day I Met You - Couple Gift - Personalized Custom Tumbler targetus all us - Copy</t>
+  </si>
+  <si>
+    <t>Post 2_This Grandpa Daddy Belongs To - Gift For Dad, Father, Grandfather - Personalized Tape Measure_VideoAdsR_TMDT1098HEL982WP_130424</t>
+  </si>
+  <si>
     <t>Target phụ_WW_This Grandpa Daddy Belongs To - Gift For Dad, Father, Grandfather - Personalized Tape Measure</t>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>7-day click, 1-day view or 1-day engaged view</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>2024-05-19</t>
-  </si>
-  <si>
-    <t>08/05_Target Grandparent_US_This Grandpa Daddy Belongs To - Gift For Dad, Father, Grandfather - Personalized Tape Measure - Copy</t>
-  </si>
-  <si>
-    <t>08/05_Target Parent_US_This Grandpa Daddy Belongs To - Gift For Dad, Father, Grandfather - Personalized Tape Measure - Copy</t>
-  </si>
-  <si>
-    <t>A Crazy Plant Lady &amp; Her Spoiled Rotten Dogs - Backyard Sign, Gift For Gardening Lovers, Gardeners, Dog Lovers - Personalized Classic Metal Signs_VideoAdsR_MSNV889NAH3361WP_240424</t>
-  </si>
-  <si>
-    <t>Target chính_WW_A Crazy Plant Lady &amp; Her Spoiled Rotten Dogs - Backyard Sign, Gift For Gardening Lovers, Gardeners, Dog Lovers - Personalized Classic Metal Signs</t>
-  </si>
-  <si>
-    <t>I Miss You - Memorial Gift For Pet Lovers, Dog Mom, Dog Dad, Cat Mom, Cat Dad - Personalized Paw Shaped Acrylic Plaque_VideoAds_PWYN213ELE2516WP_191023</t>
-  </si>
-  <si>
-    <t>Target chính_WW_I Miss You - Memorial Gift For Pet Lovers, Dog Mom, Dog Dad, Cat Mom, Cat Dad - Personalized Paw Shaped Acrylic Plaque</t>
-  </si>
-  <si>
-    <t>7-day click or 1-day view</t>
+    <t>It's Not Easy Being My Wife's Arm Candy - Funny Gift For Dad, Father, Husband - Personalized T Shirt_VideoAdsR_TSAK1099NAH3359WP_240424</t>
+  </si>
+  <si>
+    <t>Target chính_WW_It's Not Easy Being My Wife's Arm Candy - Funny Gift For Dad, Father, Husband - Personalized T Shirt</t>
+  </si>
+  <si>
+    <t>Mom's Grandma's Sweethearts - Gift For Mother, Grandmother - Personalized Leather Bag_VideoAdsR_EAGT434DIL563WP_240424</t>
+  </si>
+  <si>
+    <t>Target phụ_WW_Mom's Grandma's Sweethearts - Gift For Mother, Grandmother - Personalized Leather Bag</t>
+  </si>
+  <si>
+    <t>Drive Slow Drunk Campers Matter Husband Wife Camping Couple - Personalized Custom Flag_VideoAds_FLCH006NAH940WP_0103</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Drive Slow Drunk Campers Matter Husband Wife Camping Couple - Personalized Custom Flag</t>
+  </si>
+  <si>
+    <t>Target phụ_WW_You Belived You Could So You Did - Graduation Gift For Daughter, Son - Personalized Pillow</t>
+  </si>
+  <si>
+    <t>Garden Rules Feel The Breeze - Backyard Sign, Gift For Gardening Lovers, Gardeners - Personalized Classic Metal Signs_VideoAdsR_MSNV890NAH3362WP_240424</t>
+  </si>
+  <si>
+    <t>Target chính_US_Garden Rules Feel The Breeze - Backyard Sign, Gift For Gardening Lovers, Gardeners - Personalized Classic Metal Signs</t>
+  </si>
+  <si>
+    <t>Custom Photo A Hug From Heaven - Memorial Gift For Family, Friends - Personalized Pillow_VideoAds_PLNV722NAH2768WP_171123</t>
+  </si>
+  <si>
+    <t>All US_Custom Photo A Hug From Heaven - Memorial Gift For Family, Friends - Personalized Pillow</t>
+  </si>
+  <si>
+    <t>Target chính_US_We Used To Lived In Your Balls - Gift For Fathers, Dad - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug</t>
+  </si>
+  <si>
+    <t>Advantage+ shopping campaign_Top Sale_31/03_Baseball Mom Behind Every Baseball Player - Mother Gift - Personalized Custom Tumbler targetus_TUTN685ELE1407WP Campaign</t>
+  </si>
+  <si>
+    <t>Advantage+ shopping campaign_Top Sale_31/03_Baseball Mom Behind Every Baseball Player - Mother Gift - Personalized Custom Tumbler targetus_TUTN685ELE1407WP Ad set</t>
+  </si>
+  <si>
+    <t>Family Lions - Gift For Parents, Father, Mother - Personalized Custom Shaped Wooden Puzzle_VideoAdsR_WZAH645ELE3151WP_240424</t>
+  </si>
+  <si>
+    <t>Target chính_US_Family Lions - Gift For Parents, Father, Mother - Personalized Custom Shaped Wooden Puzzle</t>
+  </si>
+  <si>
+    <t>Custom Photo Your Light Will Always Shine - Memorial Gift For Pet Lovers, Dog Lovers, Cat Lovers - Personalized Mason Jar Light_VideoAdsR_JLPT1133HEL967WP_170424</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Custom Photo Your Light Will Always Shine - Memorial Gift For Pet Lovers, Dog Lovers, Cat Lovers - Personalized Mason Jar Light</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Cartoon Bestie - Birthday, Loving Gift For Friend, Sister, Brother - Personalized Acrylic Shaking Stand</t>
+  </si>
+  <si>
+    <t>Post 2_Love Elephant Family - Gift For Mother, Father, Family - Personalized Custom Shaped Wooden Puzzle_VideoAdsR_WZAH611ELE2987WP_100524</t>
+  </si>
+  <si>
+    <t>Target phụ_WW_Love Elephant Family - Gift For Mother, Father, Family - Personalized Custom Shaped Wooden Puzzle</t>
+  </si>
+  <si>
+    <t>Target chính_US_A Crazy Plant Lady &amp; Her Spoiled Rotten Dogs - Backyard Sign, Gift For Gardening Lovers, Gardeners, Dog Lovers - Personalized Classic Metal Signs</t>
   </si>
   <si>
     <t>08/05_Target Gift_US_This Grandpa Daddy Belongs To - Gift For Dad, Father, Grandfather - Personalized Tape Measure - Copy</t>
   </si>
   <si>
-    <t>Custom Photo Drive Safe - Gift For Couples, Besties, Dad, Mom, Family - Personalized Acrylic Car Hanger_VideoAds_AHNV777NAH2980WP_190124</t>
-  </si>
-  <si>
-    <t>07/03_Target Gift_WW_Custom Photo Drive Safe - Gift For Couples, Besties, Dad, Mom, Family - Personalized Acrylic Car Hanger</t>
+    <t>Best Dog Mom Ever - Funny Gift For Dog Lovers, Dog Moms - Personalized T Shirt_VideoAdsR_TSVA808NAH3277WP_100424</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Best Dog Mom Ever - Funny Gift For Dog Lovers, Dog Moms - Personalized T Shirt</t>
+  </si>
+  <si>
+    <t>Together Since Husband Wife - Couple Gift - Personalized Custom Pillow_VideoAds_PLAK442NAH1138WP_1612</t>
+  </si>
+  <si>
+    <t>Applied AA_Target chính_All WW_Together Since Husband Wife - Couple Gift - Personalized Custom Pillow - Copy</t>
+  </si>
+  <si>
+    <t>The Memories We've Made - Gift For Traveling Lovers - Personalized Leather Journal_VideoAdsR_LJDT1122HEL1031WP_240424</t>
+  </si>
+  <si>
+    <t>Target chính_US_The Memories We've Made - Gift For Traveling Lovers - Personalized Leather Journal</t>
+  </si>
+  <si>
+    <t>A Bond That Can't Be Broken - Gift For Dog Lovers, Dog Mom - Personalized Mug_VideoAdsR_WMAK899NAH2864WP_080524</t>
+  </si>
+  <si>
+    <t>Change to US_Target chính_WW_A Bond That Can't Be Broken - Gift For Dog Lovers, Dog Mom - Personalized Mug</t>
+  </si>
+  <si>
+    <t>If Love Could Have Saved You - Memorial Gift For Pet Lovers, Dog Mom, Dog Dad, Cat Mom, Cat Dad - Personalized Acrylic Car Hanger_VideoAds_AHYN323ELE2758WP_050124</t>
+  </si>
+  <si>
+    <t>Target chính_WW_If Love Could Have Saved You - Memorial Gift For Pet Lovers, Dog Mom, Dog Dad, Cat Mom, Cat Dad - Personalized Acrylic Car Hanger</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Family Lions - Gift For Parents, Father, Mother - Personalized Custom Shaped Wooden Puzzle</t>
+  </si>
+  <si>
+    <t>All_US_We Used To Lived In Your Balls - Gift For Fathers, Dad - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug</t>
+  </si>
+  <si>
+    <t>Custom Photo Graduation Appreciation - Graduation Gift For Friends, Family - Personalized 2-Layered Wooden Plaque With Stand_VideoAdsR_PSTN1228ELE3138WP_120424</t>
+  </si>
+  <si>
+    <t>Target phụ_WW_Custom Photo Graduation Appreciation - Graduation Gift For Friends, Family - Personalized 2-Layered Wooden Plaque With Stand</t>
+  </si>
+  <si>
+    <t>This Awesome Daddy Papa Belongs To - Personalized Unisex Beach Shorts_VideoAdsR_UBYN476ELE3205WP_100524</t>
+  </si>
+  <si>
+    <t>Target chính_WW_This Awesome Daddy Papa Belongs To - Personalized Unisex Beach Shorts</t>
+  </si>
+  <si>
+    <t>Hands Down - Gift For Father - Personalize Acrylic Car Hanger_VideoAdsR_AHHT373NEL2259WP_080524</t>
+  </si>
+  <si>
+    <t>Target phụ_WW_Hands Down - Gift For Father - Personalize Acrylic Car Hanger</t>
+  </si>
+  <si>
+    <t>Custom Photo Forever In My Heart - Memorial Gift For Dog Lovers, Cat Lovers, Pet Lovers - Personalized Engraved Bracelet_VideoAdsR_EBBD1106NAH3343WP_090524</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Custom Photo Forever In My Heart - Memorial Gift For Dog Lovers, Cat Lovers, Pet Lovers - Personalized Engraved Bracelet</t>
+  </si>
+  <si>
+    <t>inactive</t>
+  </si>
+  <si>
+    <t>Mom Thoughtful Awesome Sweet Love - Gift For Mother, Mom - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug_VideoAdsR_EMDT1110NGO2206WP_190424</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Mom Thoughtful Awesome Sweet Love - Gift For Mother, Mom - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug</t>
+  </si>
+  <si>
+    <t>Tree Family - Gift For Mother, Father, Family - Personalized Custom Shaped Wooden Puzzle_VideoAdsR_WZAH643ELE3139WP_250424</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Tree Family - Gift For Mother, Father, Family - Personalized Custom Shaped Wooden Puzzle</t>
+  </si>
+  <si>
+    <t>You Are Five Stars Papa, We Love You To The Moon And Back - Personalized T Shirt_VideoAdsR_TSTR237HAL2222WP_100524</t>
+  </si>
+  <si>
+    <t>Target chính_US_You Are Five Stars Papa, We Love You To The Moon And Back - Personalized T Shirt</t>
+  </si>
+  <si>
+    <t>Just A Girl Who Loves Cruising - Gift For Travel Lovers - Personalized Luggage Tag_VideoAds_GTNA266NGO1969WP_110124</t>
+  </si>
+  <si>
+    <t>Target phụ_WW_Just A Girl Who Loves Cruising - Gift For Travel Lovers - Personalized Luggage Tag</t>
+  </si>
+  <si>
+    <t>Mom Grandma Kids Butterflies Leopard Pattern - Gift For Mother, Grandmother - Personalized Women's Sleep Tee_VideoAdsR_LTDT1101HEL988WP_190424</t>
+  </si>
+  <si>
+    <t>Target chính_US_Mom Grandma Kids Butterflies Leopard Pattern - Gift For Mother, Grandmother - Personalized Women's Sleep Tee</t>
+  </si>
+  <si>
+    <t>Change to US_Target phụ_WW_We Used To Lived In Your Balls - Gift For Fathers, Dad - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug</t>
+  </si>
+  <si>
+    <t>Mama Bear Floral Style - Birthday, Loving Gift For Mom, Mother, Grandma, Grandmother - Personalized Women's Sleep Tee_VideoAdsR_LTHC316HEL998WP_130424</t>
+  </si>
+  <si>
+    <t>Target chính_US_Mama Bear Floral Style - Birthday, Loving Gift For Mom, Mother, Grandma, Grandmother - Personalized Women's Sleep Tee</t>
+  </si>
+  <si>
+    <t>Target chính_US_This Awesome Daddy Belongs To - Birthday, Loving Gift For Dad, Father, Grandfather, Grandpa - Personalized Tape Measure</t>
+  </si>
+  <si>
+    <t>Traveling Couple Hubby &amp; Wifey Travel Partners For Life - Gift For Couples, Traveling Gift - Personalized Combo 2 Luggage Tags_VideoAds_GYTK173CIN2077WP_180124</t>
+  </si>
+  <si>
+    <t>Target chính_US_Traveling Couple Hubby &amp; Wifey Travel Partners For Life - Gift For Couples, Traveling Gift - Personalized Combo 2 Luggage Tags</t>
+  </si>
+  <si>
+    <t>31/01/24_Target Family_US, UK_I Miss You I Know - Memorial Gift For Family, Friends, Siblings - Personalized Acrylic Car Hanger - Copy 2</t>
+  </si>
+  <si>
+    <t>Target phụ_WW_Tree Family - Gift For Mother, Father, Family - Personalized Custom Shaped Wooden Puzzle</t>
+  </si>
+  <si>
+    <t>Target chính_WW_The Memories We've Made - Gift For Traveling Lovers - Personalized Leather Journal</t>
+  </si>
+  <si>
+    <t>Calendar The Day You Became My Daddy - Gift For Father - Personalized 3D Led Light Wooden Base_VideoAdsR_LWKK865CIN2362WP_090524</t>
+  </si>
+  <si>
+    <t>Target chính_US_Calendar The Day You Became My Daddy - Gift For Father - Personalized 3D Led Light Wooden Base</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Mom Grandma Kids Butterflies Leopard Pattern - Gift For Mother, Grandmother - Personalized Women's Sleep Tee</t>
   </si>
   <si>
     <t>I Love Every Inch Of You - Gift For Couples, Husband, Boyfriend - Personalized Tape Measure_VideoAdsR_TMNA362HEL1032WP_080524</t>
@@ -113,580 +470,169 @@
     <t>Target chính_WW_I Love Every Inch Of You - Gift For Couples, Husband, Boyfriend - Personalized Tape Measure</t>
   </si>
   <si>
-    <t>TC WP Co 02</t>
-  </si>
-  <si>
-    <t>Advantage+ shopping campaign_Top Sale_31/03_Baseball Mom Behind Every Baseball Player - Mother Gift - Personalized Custom Tumbler targetus Campaign</t>
-  </si>
-  <si>
-    <t>Advantage+ shopping campaign_Top Sale_31/03_Baseball Mom Behind Every Baseball Player - Mother Gift - Personalized Custom Tumbler targetus Ad set</t>
-  </si>
-  <si>
-    <t>Advantage+ shopping campaign_Top Sale_31/03</t>
-  </si>
-  <si>
-    <t>Advantage+ shopping campaign 30/03/2023 Ad set</t>
-  </si>
-  <si>
-    <t>I'm A Professional Grandma - Funny, Retirement Gift For Grandma, Mom, Nana, Gigi - Personalized T Shirt_VideoAdsR_TSVA809NAH3281WP_100424</t>
-  </si>
-  <si>
-    <t>All WW_I'm A Professional Grandma - Funny, Retirement Gift For Grandma, Mom, Nana, Gigi - Personalized T Shirt - Copy</t>
-  </si>
-  <si>
-    <t>I Miss You I Know - Memorial Gift For Family, Friends, Siblings - Personalized Acrylic Car Hanger_VideoAds_AHBD1025ELE2801WP_150124</t>
-  </si>
-  <si>
-    <t>Target phụ_WW_I Miss You I Know - Memorial Gift For Family, Friends, Siblings - Personalized Acrylic Car Hanger</t>
-  </si>
-  <si>
-    <t>Cartoon Bestie - Birthday, Loving Gift For Friend, Sister, Brother - Personalized Acrylic Shaking Stand_VideoAds_KSNV774HAL1877WP_160124</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Cartoon Bestie - Birthday, Loving Gift For Friend, Sister, Brother - Personalized Acrylic Shaking Stand</t>
-  </si>
-  <si>
-    <t>Custom Photo Dear Dad Thank You For Teaching Me - Gift For Dad, Father, Grandpa, Sport Fans - Personalized Baseball, Softball_VideoAdsR_BBTN1241ELE3189WP_100524</t>
-  </si>
-  <si>
-    <t>Target chính_US_Custom Photo Dear Dad Thank You For Teaching Me - Gift For Dad, Father, Grandpa, Sport Fans - Personalized Baseball, Softball</t>
-  </si>
-  <si>
-    <t>This Awesome Daddy Belongs To - Birthday, Loving Gift For Dad, Father, Grandfather, Grandpa - Personalized Tape Measure_VideoAdsR_TMPT1138HEL981WP_250424</t>
-  </si>
-  <si>
-    <t>Target phụ_WW_This Awesome Daddy Belongs To - Birthday, Loving Gift For Dad, Father, Grandfather, Grandpa - Personalized Tape Measure</t>
-  </si>
-  <si>
-    <t>Custom Photo Drive Safe Daddy - Birthday, Loving Gift For Dad, Father, Papa, Grandpa - Personalized Acrylic Tag Keychain_VideoAdsR_AGYN458ELE3144WP_170424</t>
-  </si>
-  <si>
-    <t>Target phụ_WW_Custom Photo Drive Safe Daddy - Birthday, Loving Gift For Dad, Father, Papa, Grandpa - Personalized Acrylic Tag Keychain</t>
-  </si>
-  <si>
-    <t>20/03/24_Target 45+_WW_Cartoon Bestie - Birthday, Loving Gift For Friend, Sister, Brother - Personalized Acrylic Shaking Stand - Copy</t>
-  </si>
-  <si>
-    <t>Custom Photo A Hug From Heaven - Memorial Gift For Family, Friends - Personalized Pillow_VideoAds_PLNV722NAH2768WP_171123</t>
-  </si>
-  <si>
-    <t>All US_Custom Photo A Hug From Heaven - Memorial Gift For Family, Friends - Personalized Pillow</t>
-  </si>
-  <si>
-    <t>You Belived You Could So You Did - Graduation Gift For Daughter, Son - Personalized Pillow_VideoAdsR_PLNT233DIL693WP_040524</t>
-  </si>
-  <si>
-    <t>Target chính_WW_You Belived You Could So You Did - Graduation Gift For Daughter, Son - Personalized Pillow</t>
-  </si>
-  <si>
-    <t>Hand In Hand, I Will Always Protect You - Birthday, Loving Gift For Mom, Dad, Papa, Nana, Grandma, Grandpa - Personalized Custom Mug_VideoAdsR_MGVT198HAL1233WP_120424</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Hand In Hand, I Will Always Protect You - Birthday, Loving Gift For Mom, Dad, Papa, Nana, Grandma, Grandpa - Personalized Custom Mug</t>
-  </si>
-  <si>
-    <t>08/05/24_Target Garden Interest_US_A Crazy Plant Lady &amp; Her Spoiled Rotten Dogs - Backyard Sign, Gift For Gardening Lovers, Gardeners, Dog Lovers - Personalized Classic Metal Signs</t>
-  </si>
-  <si>
-    <t>3D Cracked Wall Reading Girl - Gift For Book Lovers - Personalized White Edge-to-Edge Mug_VideoAdsR_EMPT1135NGO2186WP_170424</t>
-  </si>
-  <si>
-    <t>Target chính_WW_3D Cracked Wall Reading Girl - Gift For Book Lovers - Personalized White Edge-to-Edge Mug</t>
-  </si>
-  <si>
-    <t>Target chính_US_I Miss You I Know - Memorial Gift For Family, Friends, Siblings - Personalized Acrylic Car Hanger</t>
-  </si>
-  <si>
-    <t>You &amp; Me And The Dogs Camping Husband Wife - Couple Gift - Personalized Custom Flag_VideoAds_FLTN615NAH1136WP_2012</t>
-  </si>
-  <si>
-    <t>Target chính_WW_You &amp; Me And The Dogs Camping Husband Wife - Couple Gift - Personalized Custom Flag</t>
-  </si>
-  <si>
-    <t>Best Dog Mom Ever - Funny Gift For Dog Lovers, Dog Moms - Personalized T Shirt_VideoAdsR_TSVA808NAH3277WP_100424</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Best Dog Mom Ever - Funny Gift For Dog Lovers, Dog Moms - Personalized T Shirt</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Just A Girl Boy Who Loves Traveling - Gift For Traveling Lovers - Personalized Custom Luggage Cover_VideoAds_LCVA464ELE1415WP_0902</t>
-  </si>
-  <si>
-    <t>Target chính_WW-US_Just A Girl Boy Who Loves Traveling - Gift For Traveling Lovers - Personalized Custom Luggage Cover</t>
-  </si>
-  <si>
-    <t>Family Couple The Day I Met You - Couple Gift - Personalized Custom Tumbler_VideoAds_TUBD556ELE1421WP_1911</t>
-  </si>
-  <si>
-    <t>All us_Family Couple The Day I Met You - Couple Gift - Personalized Custom Tumbler targetus all us - Copy</t>
-  </si>
-  <si>
-    <t>Post 2_A Crazy Plant Lady &amp; Her Spoiled Rotten Dogs - Backyard Sign, Gift For Gardening Lovers, Gardeners, Dog Lovers - Personalized Classic Metal Signs_VideoAdsR_MSNV889NAH3361WP_240424</t>
+    <t>Tanned And Tipsy - Travel, Vacation Gift For Woman, Beach Lovers - Personalized Beach Towel_VideoAdsR_BCTS433ELE3190WP_040524</t>
+  </si>
+  <si>
+    <t>All_US_Tanned And Tipsy - Travel, Vacation Gift For Woman, Beach Lovers - Personalized Beach Towel</t>
+  </si>
+  <si>
+    <t>Custom Photo Baseball Player - Gift For Baseball, Softball Players - Personalized Baseball, Softball_VideoAdsR_BBTB500CIN2199WP_100424</t>
+  </si>
+  <si>
+    <t>All US_Custom Photo Baseball Player - Gift For Baseball, Softball Players - Personalized Baseball, Softball</t>
+  </si>
+  <si>
+    <t>19/04/24 Runagain_Dear Mom Great Job We're Awesome Thank You - Birthday, Loving Gift For Mother, Grandma, Grandmother - Personalized Custom T Shirt_VideoAds_TSTS006HAL740WP_1301</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Dear Mom Great Job We're Awesome Thank You - Mother Gift - Personalized Custom T Shirt - Copy</t>
+  </si>
+  <si>
+    <t>Custom Photo Thanks For All The Belly Rubs - Gift For Dog Dad, Dog Lovers - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug_VideoAdsR_EMHC320NGO2216WP_100524</t>
+  </si>
+  <si>
+    <t>Target chính_US_Custom Photo Thanks For All The Belly Rubs - Gift For Dog Dad, Dog Lovers - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug</t>
+  </si>
+  <si>
+    <t>A Man And His Dog A Bond That Can't Be Broken - Personalized Window Hanging Suncatcher Ornament_VideoAdsR_SHTA388HAL2221WP_100524</t>
+  </si>
+  <si>
+    <t>Target chính_WW_A Man And His Dog A Bond That Can't Be Broken - Personalized Window Hanging Suncatcher Ornament</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Love Elephant Family - Gift For Mother, Father, Family - Personalized Custom Shaped Wooden Puzzle</t>
+  </si>
+  <si>
+    <t>Drink In My Hand - Personalized Mason Jar Cup With Straw_VideoAdsR_GSGT470NEL2271WP_090524</t>
+  </si>
+  <si>
+    <t>Target chính_US_Drink In My Hand - Personalized Mason Jar Cup With Straw</t>
   </si>
   <si>
     <t>Nana, Mom, Auntie Family Sunflower - Birthday, Loving Gift For Mother, Grandma, Grandmother - Personalized Acrylic Car Hanger_VideoAds_AHYN334ELE2796WP_130124</t>
   </si>
   <si>
+    <t>23/02_Target Parenting_US_Nana, Mom, Auntie Family Sunflower - Birthday, Loving Gift For Mother, Grandma, Grandmother - Personalized Acrylic Car Hanger</t>
+  </si>
+  <si>
+    <t>Target phụ_WW_A Man And His Dog A Bond That Can't Be Broken - Personalized Window Hanging Suncatcher Ornament</t>
+  </si>
+  <si>
+    <t>Target chính_US_I Love Every Inch Of You - Gift For Couples, Husband, Boyfriend - Personalized Tape Measure</t>
+  </si>
+  <si>
+    <t>Target chính_US_If Love Could Have Saved You - Memorial Gift For Pet Lovers, Dog Mom, Dog Dad, Cat Mom, Cat Dad - Personalized Acrylic Car Hanger</t>
+  </si>
+  <si>
+    <t>Thank You Best Dog Mom Ever - Mother Gift - Personalized Custom Tumbler_VideoAds_TUTN662HAL690WP_2612</t>
+  </si>
+  <si>
+    <t>US_Target chính_US_Thank You Best Dog Mom Ever - Mother Gift - Personalized Custom Tumbler</t>
+  </si>
+  <si>
+    <t>Post 2_Custom Photo I'm Always With You - Memorial Gift For Family, Friend - Personalized Engraved Bracelet_VideoAdsR_EBAH532HAL1774WP_090524</t>
+  </si>
+  <si>
+    <t>Target chính_US_Custom Photo I'm Always With You - Memorial Gift For Family, Friend - Personalized Engraved Bracelet</t>
+  </si>
+  <si>
+    <t>All us_Custom Photo 3D Cracked Pet Face - Gift For Dog Lovers - Personalized Decor Decal</t>
+  </si>
+  <si>
+    <t>Target phụ_WW_Tanned And Tipsy - Travel, Vacation Gift For Woman, Beach Lovers - Personalized Beach Towel</t>
+  </si>
+  <si>
+    <t>Target phụ_WW_Drink In My Hand - Personalized Mason Jar Cup With Straw</t>
+  </si>
+  <si>
+    <t>All us_Custom Photo Forever In My Heart - Memorial Gift For Dog Lovers, Cat Lovers, Pet Lovers - Personalized Engraved Bracelet</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Custom Photo I'm Always With You - Memorial Gift For Family, Friend - Personalized Engraved Bracelet</t>
+  </si>
+  <si>
+    <t>Dog Mom - Funny Gift For Dog Lovers, Pet Lovers - Personalized Women's Sleep Tee_VideoAdsR_LTAK1094NAH3347WP_240424</t>
+  </si>
+  <si>
+    <t>Target chính_US_Dog Mom - Funny Gift For Dog Lovers, Pet Lovers - Personalized Women's Sleep Tee</t>
+  </si>
+  <si>
+    <t>Target chính_US_Custom Photo Drive Safe Daddy - Birthday, Loving Gift For Dad, Father, Papa, Grandpa - Personalized Acrylic Tag Keychain</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Calendar The Day You Became My Daddy - Gift For Father - Personalized 3D Led Light Wooden Base</t>
+  </si>
+  <si>
+    <t>I'm Not Retired I'm A Professional Grandpa - Personalized T Shirt_VideoAdsR_TSNV898NAH3398WP_100524</t>
+  </si>
+  <si>
+    <t>Target phụ_WW_I'm Not Retired I'm A Professional Grandpa - Personalized T Shirt</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Cartoon Better Than Being Your Mother Father - Gift For Daughter, Gift For Son - Personalized Mug</t>
+  </si>
+  <si>
+    <t>Target All_US_Dear Mom Great Job We're Awesome Thank You - Mother Gift - Personalized Custom T Shirt - Copy 2</t>
+  </si>
+  <si>
+    <t>The Light Remains - Dad Memorial Gift - Personalized Horizontal Frame Lamp_VideoAdsR_FHKK858NEL2244WP_100524</t>
+  </si>
+  <si>
+    <t>Target chính_WW_The Light Remains - Dad Memorial Gift - Personalized Horizontal Frame Lamp</t>
+  </si>
+  <si>
+    <t>All us_Best Dog Mom Ever - Funny Gift For Dog Lovers, Dog Moms - Personalized T Shirt</t>
+  </si>
+  <si>
+    <t>All us_Calendar The Day You Became My Daddy - Gift For Father - Personalized 3D Led Light Wooden Base</t>
+  </si>
+  <si>
+    <t>TDo 03</t>
+  </si>
+  <si>
+    <t>Cute Cats Aesthetic Pattern - Birthday, Loving Gift For Cat Mom, Cat Lovers - Personalized Leather Long Wallet_LLNN379HEL809WP_18/01/24</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Cute Cats Aesthetic Pattern - Birthday, Loving Gift For Cat Mom, Cat Lovers - Personalized Leather Long Wallet</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Mom's Grandma's Sweethearts - Gift For Mother, Grandmother - Personalized Leather Bag</t>
+  </si>
+  <si>
+    <t>Just A Girl Boy Who Loves Traveling - Birthday Gift For Him, Her, Vacation Lovers - Personalized Custom Passport Cover, Passport Holder_VideoAdsR_PCAH305ELE2167WP_250424</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Just A Girl Boy Who Loves Traveling - Birthday Gift For Him, Her, Vacation Lovers - Personalized Custom Passport Cover, Passport Holder</t>
+  </si>
+  <si>
+    <t>Once Upon A Time There Was A Girl - Backyard Sign, Gift For Gardening Lovers, Gardeners, Dog Lovers - Personalized Classic Metal Signs_VideoAdsR_MSNV888NAH3356WP_240424</t>
+  </si>
+  <si>
+    <t>Target phụ_WW_Once Upon A Time There Was A Girl - Backyard Sign, Gift For Gardening Lovers, Gardeners, Dog Lovers - Personalized Classic Metal Signs</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Tanned And Tipsy - Travel, Vacation Gift For Woman, Beach Lovers - Personalized Beach Towel</t>
+  </si>
+  <si>
+    <t>Papa Grandkids Hand Print - Personalized Mug_VideoAdsR_WMAK1118NAH3400WP_080524</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Papa Grandkids Hand Print - Personalized Mug</t>
+  </si>
+  <si>
+    <t>Cool Grandma Club - Funny Gift For Grandma, Mom, Nana, Gigi - Personalized T Shirt_VideoAdsR_TSVA804NAH3263WP_100424</t>
+  </si>
+  <si>
+    <t>Target chính_WW_Cool Grandma Club - Funny Gift For Grandma, Mom, Nana, Gigi - Personalized T Shirt</t>
+  </si>
+  <si>
+    <t>08/05/24_Target Garden Pet_US_A Crazy Plant Lady &amp; Her Spoiled Rotten Dogs - Backyard Sign, Gift For Gardening Lovers, Gardeners, Dog Lovers - Personalized Classic Metal Signs</t>
+  </si>
+  <si>
     <t>31/01/24_Target Motherhood_US_Nana, Mom, Auntie Family Sunflower - Birthday, Loving Gift For Mother, Grandma, Grandmother - Personalized Acrylic Car Hanger</t>
   </si>
   <si>
-    <t>Garden Rules Feel The Breeze - Backyard Sign, Gift For Gardening Lovers, Gardeners - Personalized Classic Metal Signs_VideoAdsR_MSNV890NAH3362WP_240424</t>
-  </si>
-  <si>
-    <t>Target chính_US_Garden Rules Feel The Breeze - Backyard Sign, Gift For Gardening Lovers, Gardeners - Personalized Classic Metal Signs</t>
-  </si>
-  <si>
-    <t>You And Me And The Dog Cat - Gift For Pet Lovers - Personalized Pillow_VideoAds_PLDT879NGO1706WP_201023</t>
-  </si>
-  <si>
-    <t>Target chính_WW_You And Me And The Dog Cat - Gift For Pet Lovers - Personalized Pillow</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Custom Photo Drive Safe - Gift For Couples, Besties, Dad, Mom, Family - Personalized Acrylic Car Hanger</t>
-  </si>
-  <si>
-    <t>Cartoon Better Than Being Your Mother Father - Gift For Daughter, Gift For Son - Personalized Mug_VideoAdsR_MGTK255CIN2361WP_080524</t>
-  </si>
-  <si>
-    <t>Target chính_US_Cartoon Better Than Being Your Mother Father - Gift For Daughter, Gift For Son - Personalized Mug</t>
-  </si>
-  <si>
-    <t>Drive Slow Drunk Campers Matter Husband Wife Camping Couple - Personalized Custom Flag_VideoAds_FLCH006NAH940WP_0103</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Drive Slow Drunk Campers Matter Husband Wife Camping Couple - Personalized Custom Flag</t>
-  </si>
-  <si>
-    <t>A Bond That Can't Be Broken - Gift For Dog Lovers, Dog Mom - Personalized Mug_VideoAdsR_WMAK899NAH2864WP_080524</t>
-  </si>
-  <si>
-    <t>Target chính_WW_A Bond That Can't Be Broken - Gift For Dog Lovers, Dog Mom - Personalized Mug</t>
-  </si>
-  <si>
-    <t>Just A Girl Boy Who Loves Cruising - Gift For Traveling Lovers - Personalized Custom Luggage Cover_VideoAds_LCVA475ELE1453WP_0902</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Just A Girl Boy Who Loves Cruising - Gift For Traveling Lovers - Personalized Custom Luggage Cover</t>
-  </si>
-  <si>
-    <t>Mom's Grandma's Sweethearts - Gift For Mother, Grandmother - Personalized Leather Bag_VideoAdsR_EAGT434DIL563WP_240424</t>
-  </si>
-  <si>
-    <t>Target phụ_WW_Mom's Grandma's Sweethearts - Gift For Mother, Grandmother - Personalized Leather Bag</t>
-  </si>
-  <si>
-    <t>Just A Girl Who Loves Cruising - Gift For Travel Lovers - Personalized Luggage Tag_VideoAds_GTNA266NGO1969WP_110124</t>
-  </si>
-  <si>
-    <t>Target phụ_WW_Just A Girl Who Loves Cruising - Gift For Travel Lovers - Personalized Luggage Tag</t>
-  </si>
-  <si>
-    <t>Dog Human Fist Bump - Gift For Dog Dad, Dog Lovers - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug_VideoAdsR_EMNN443HEL1034WP_100524</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Dog Human Fist Bump - Gift For Dog Dad, Dog Lovers - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Cartoon Better Than Being Your Mother Father - Gift For Daughter, Gift For Son - Personalized Mug</t>
-  </si>
-  <si>
-    <t>Custom Photo I'll Carry You - Memorial Gift For Family, Siblings, Friends - Personalized Aluminum Keychain_VideoAds_LDTS309NAH2750WP_201123</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Custom Photo I'll Carry You - Memorial Gift For Family, Siblings, Friends - Personalized Aluminum Keychain</t>
-  </si>
-  <si>
-    <t>Mom Grandma Kids Butterflies Leopard Pattern - Gift For Mother, Grandmother - Personalized Women's Sleep Tee_VideoAdsR_LTDT1101HEL988WP_190424</t>
-  </si>
-  <si>
-    <t>Target chính_US_Mom Grandma Kids Butterflies Leopard Pattern - Gift For Mother, Grandmother - Personalized Women's Sleep Tee</t>
-  </si>
-  <si>
-    <t>Family Lions - Gift For Parents, Father, Mother - Personalized Custom Shaped Wooden Puzzle_VideoAdsR_WZAH645ELE3151WP_240424</t>
-  </si>
-  <si>
-    <t>Target chính_US_Family Lions - Gift For Parents, Father, Mother - Personalized Custom Shaped Wooden Puzzle</t>
-  </si>
-  <si>
-    <t>19/04/24 Runagain_Dear Mom Great Job We're Awesome Thank You - Birthday, Loving Gift For Mother, Grandma, Grandmother - Personalized Custom T Shirt_VideoAds_TSTS006HAL740WP_1301</t>
-  </si>
-  <si>
-    <t>Target All_US_Dear Mom Great Job We're Awesome Thank You - Mother Gift - Personalized Custom T Shirt - Copy 2</t>
-  </si>
-  <si>
-    <t>Thank You Best Dog Mom Ever - Mother Gift - Personalized Custom Tumbler_VideoAds_TUTN662HAL690WP_2612</t>
-  </si>
-  <si>
-    <t>US_Target chính_US_Thank You Best Dog Mom Ever - Mother Gift - Personalized Custom Tumbler</t>
-  </si>
-  <si>
-    <t>Couple Kissing - Anniversary Gift For Couples - Personalized Cutout Acrylic Keychain_VideoAds_CKYN284ELE2663WP_121223</t>
-  </si>
-  <si>
-    <t>Target phụ_WW_Couple Kissing - Anniversary Gift For Couples - Personalized Cutout Acrylic Keychain</t>
-  </si>
-  <si>
-    <t>Target chính_US_This Awesome Daddy Belongs To - Birthday, Loving Gift For Dad, Father, Grandfather, Grandpa - Personalized Tape Measure</t>
-  </si>
-  <si>
-    <t>Once Upon A Time There Was A Girl - Backyard Sign, Gift For Gardening Lovers, Gardeners, Dog Lovers - Personalized Classic Metal Signs_VideoAdsR_MSNV888NAH3356WP_240424</t>
-  </si>
-  <si>
-    <t>Target phụ_WW_Once Upon A Time There Was A Girl - Backyard Sign, Gift For Gardening Lovers, Gardeners, Dog Lovers - Personalized Classic Metal Signs</t>
-  </si>
-  <si>
-    <t>Together Since Husband Wife - Couple Gift - Personalized Custom Pillow_VideoAds_PLAK442NAH1138WP_1612</t>
-  </si>
-  <si>
-    <t>Applied AA_Target chính_All WW_Together Since Husband Wife - Couple Gift - Personalized Custom Pillow - Copy</t>
-  </si>
-  <si>
-    <t>If Love Could Have Saved You - Memorial Gift For Pet Lovers, Dog Mom, Dog Dad, Cat Mom, Cat Dad - Personalized Acrylic Car Hanger_VideoAds_AHYN323ELE2758WP_050124</t>
-  </si>
-  <si>
-    <t>Target chính_WW_If Love Could Have Saved You - Memorial Gift For Pet Lovers, Dog Mom, Dog Dad, Cat Mom, Cat Dad - Personalized Acrylic Car Hanger</t>
-  </si>
-  <si>
-    <t>Reopen 17/05/24_We Used To Lived In Your Balls - Gift For Fathers, Dad - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug_VideoAdsR_EMHC313NGO2194WP_190424</t>
-  </si>
-  <si>
-    <t>Target chính_WW_We Used To Lived In Your Balls - Gift For Fathers, Dad - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug</t>
-  </si>
-  <si>
-    <t>Target chính_US_Custom Photo Drive Safe Daddy - Birthday, Loving Gift For Dad, Father, Papa, Grandpa - Personalized Acrylic Tag Keychain</t>
-  </si>
-  <si>
-    <t>This Awesome Dad Grandpa Belongs To - Gift For Daddy, Father, Grandfather - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug_VideoAdsR_EMDT1116HEL1019WP_250424</t>
-  </si>
-  <si>
-    <t>Target phụ_WW_This Awesome Dad Grandpa Belongs To - Gift For Daddy, Father, Grandfather - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug</t>
-  </si>
-  <si>
-    <t>Dog Mom - Funny Gift For Dog Lovers, Pet Lovers - Personalized Women's Sleep Tee_VideoAdsR_LTAK1094NAH3347WP_240424</t>
-  </si>
-  <si>
-    <t>Target chính_US_Dog Mom - Funny Gift For Dog Lovers, Pet Lovers - Personalized Women's Sleep Tee</t>
-  </si>
-  <si>
-    <t>All_US_We Used To Lived In Your Balls - Gift For Fathers, Dad - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug</t>
-  </si>
-  <si>
-    <t>Target chính_US_I Love Every Inch Of You - Gift For Couples, Husband, Boyfriend - Personalized Tape Measure</t>
-  </si>
-  <si>
-    <t>It's Not Easy Being My Wife's Arm Candy - Funny Gift For Dad, Father, Husband - Personalized T Shirt_VideoAdsR_TSAK1099NAH3359WP_240424</t>
-  </si>
-  <si>
-    <t>Target chính_WW_It's Not Easy Being My Wife's Arm Candy - Funny Gift For Dad, Father, Husband - Personalized T Shirt</t>
-  </si>
-  <si>
     <t>08/05/24_Target Garden Design_US_A Crazy Plant Lady &amp; Her Spoiled Rotten Dogs - Backyard Sign, Gift For Gardening Lovers, Gardeners, Dog Lovers - Personalized Classic Metal Signs</t>
-  </si>
-  <si>
-    <t>TDo 03</t>
-  </si>
-  <si>
-    <t>Cute Cats Aesthetic Pattern - Birthday, Loving Gift For Cat Mom, Cat Lovers - Personalized Leather Long Wallet_LLNN379HEL809WP_18/01/24</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Cute Cats Aesthetic Pattern - Birthday, Loving Gift For Cat Mom, Cat Lovers - Personalized Leather Long Wallet</t>
-  </si>
-  <si>
-    <t>31/01/24_Target Family_US, UK_I Miss You I Know - Memorial Gift For Family, Friends, Siblings - Personalized Acrylic Car Hanger - Copy 2</t>
-  </si>
-  <si>
-    <t>Target phụ_WW_You Belived You Could So You Did - Graduation Gift For Daughter, Son - Personalized Pillow</t>
-  </si>
-  <si>
-    <t>Tree Family - Gift For Mother, Father, Family - Personalized Custom Shaped Wooden Puzzle_VideoAdsR_WZAH643ELE3139WP_250424</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Tree Family - Gift For Mother, Father, Family - Personalized Custom Shaped Wooden Puzzle</t>
-  </si>
-  <si>
-    <t>Mama Bear Floral Style - Birthday, Loving Gift For Mom, Mother, Grandma, Grandmother - Personalized Women's Sleep Tee_VideoAdsR_LTHC316HEL998WP_130424</t>
-  </si>
-  <si>
-    <t>Target chính_US_Mama Bear Floral Style - Birthday, Loving Gift For Mom, Mother, Grandma, Grandmother - Personalized Women's Sleep Tee</t>
-  </si>
-  <si>
-    <t>Tanned And Tipsy - Travel, Vacation Gift For Woman, Beach Lovers - Personalized Beach Towel_VideoAdsR_BCTS433ELE3190WP_040524</t>
-  </si>
-  <si>
-    <t>Target phụ_WW_Tanned And Tipsy - Travel, Vacation Gift For Woman, Beach Lovers - Personalized Beach Towel</t>
-  </si>
-  <si>
-    <t>The Light Remains - Dad Memorial Gift - Personalized Horizontal Frame Lamp_VideoAdsR_FHKK858NEL2244WP_100524</t>
-  </si>
-  <si>
-    <t>Target chính_WW_The Light Remains - Dad Memorial Gift - Personalized Horizontal Frame Lamp</t>
-  </si>
-  <si>
-    <t>Traveling Couple Hubby &amp; Wifey Travel Partners For Life - Gift For Couples, Traveling Gift - Personalized Combo 2 Luggage Tags_VideoAds_GYTK173CIN2077WP_180124</t>
-  </si>
-  <si>
-    <t>Target chính_US_Traveling Couple Hubby &amp; Wifey Travel Partners For Life - Gift For Couples, Traveling Gift - Personalized Combo 2 Luggage Tags</t>
-  </si>
-  <si>
-    <t>Custom Photo Forever In My Heart - Memorial Gift For Dog Lovers, Cat Lovers, Pet Lovers - Personalized Engraved Bracelet_VideoAdsR_EBBD1106NAH3343WP_090524</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Custom Photo Forever In My Heart - Memorial Gift For Dog Lovers, Cat Lovers, Pet Lovers - Personalized Engraved Bracelet</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Family Lions - Gift For Parents, Father, Mother - Personalized Custom Shaped Wooden Puzzle</t>
-  </si>
-  <si>
-    <t>Mom Thoughtful Awesome Sweet Love - Gift For Mother, Mom - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug_VideoAdsR_EMDT1110NGO2206WP_190424</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Mom Thoughtful Awesome Sweet Love - Gift For Mother, Mom - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Dear Mom Great Job We're Awesome Thank You - Mother Gift - Personalized Custom T Shirt - Copy</t>
-  </si>
-  <si>
-    <t>Post 2_Love Elephant Family - Gift For Mother, Father, Family - Personalized Custom Shaped Wooden Puzzle_VideoAdsR_WZAH611ELE2987WP_100524</t>
-  </si>
-  <si>
-    <t>Target phụ_WW_Love Elephant Family - Gift For Mother, Father, Family - Personalized Custom Shaped Wooden Puzzle</t>
-  </si>
-  <si>
-    <t>All us_Custom Photo Forever In My Heart - Memorial Gift For Dog Lovers, Cat Lovers, Pet Lovers - Personalized Engraved Bracelet</t>
-  </si>
-  <si>
-    <t>Cool Grandma Club - Funny Gift For Grandma, Mom, Nana, Gigi - Personalized T Shirt_VideoAdsR_TSVA804NAH3263WP_100424</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Cool Grandma Club - Funny Gift For Grandma, Mom, Nana, Gigi - Personalized T Shirt</t>
-  </si>
-  <si>
-    <t>Target phụ_WW_We Used To Lived In Your Balls - Gift For Fathers, Dad - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug</t>
-  </si>
-  <si>
-    <t>All_US_Tanned And Tipsy - Travel, Vacation Gift For Woman, Beach Lovers - Personalized Beach Towel</t>
-  </si>
-  <si>
-    <t>23/02_Target Parenting_US_Nana, Mom, Auntie Family Sunflower - Birthday, Loving Gift For Mother, Grandma, Grandmother - Personalized Acrylic Car Hanger</t>
-  </si>
-  <si>
-    <t>All us_Best Dog Mom Ever - Funny Gift For Dog Lovers, Dog Moms - Personalized T Shirt</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Tanned And Tipsy - Travel, Vacation Gift For Woman, Beach Lovers - Personalized Beach Towel</t>
-  </si>
-  <si>
-    <t>Hands Down - Gift For Father - Personalize Acrylic Car Hanger_VideoAdsR_AHHT373NEL2259WP_080524</t>
-  </si>
-  <si>
-    <t>Target phụ_WW_Hands Down - Gift For Father - Personalize Acrylic Car Hanger</t>
-  </si>
-  <si>
-    <t>Target phụ_WW_Tree Family - Gift For Mother, Father, Family - Personalized Custom Shaped Wooden Puzzle</t>
-  </si>
-  <si>
-    <t>Drink In My Hand - Personalized Mason Jar Cup With Straw_VideoAdsR_GSGT470NEL2271WP_090524</t>
-  </si>
-  <si>
-    <t>Target phụ_WW_Drink In My Hand - Personalized Mason Jar Cup With Straw</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Mom's Grandma's Sweethearts - Gift For Mother, Grandmother - Personalized Leather Bag</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Love Elephant Family - Gift For Mother, Father, Family - Personalized Custom Shaped Wooden Puzzle</t>
-  </si>
-  <si>
-    <t>Custom Photo Baseball Player - Gift For Baseball, Softball Players - Personalized Baseball, Softball_VideoAdsR_BBTB500CIN2199WP_100424</t>
-  </si>
-  <si>
-    <t>All US_Custom Photo Baseball Player - Gift For Baseball, Softball Players - Personalized Baseball, Softball</t>
-  </si>
-  <si>
-    <t>Custom Photo Thanks For All The Belly Rubs - Gift For Dog Dad, Dog Lovers - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug_VideoAdsR_EMHC320NGO2216WP_100524</t>
-  </si>
-  <si>
-    <t>Target chính_US_Custom Photo Thanks For All The Belly Rubs - Gift For Dog Dad, Dog Lovers - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug</t>
-  </si>
-  <si>
-    <t>Custom Photo MVP Most Valuable Papa - Gift For Dad, Father, Grandpa, Sport Fans - Personalized Baseball, Softball_VideoAdsR_BBTN1240ELE3188WP_080524</t>
-  </si>
-  <si>
-    <t>Target chính_US_Custom Photo MVP Most Valuable Papa - Gift For Dad, Father, Grandpa, Sport Fans - Personalized Baseball, Softball</t>
-  </si>
-  <si>
-    <t>Custom Photo Your Light Will Always Shine - Memorial Gift For Pet Lovers, Dog Lovers, Cat Lovers - Personalized Mason Jar Light_VideoAdsR_JLPT1133HEL967WP_170424</t>
-  </si>
-  <si>
-    <t>Target phụ_WW_Custom Photo Your Light Will Always Shine - Memorial Gift For Pet Lovers, Dog Lovers, Cat Lovers - Personalized Mason Jar Light</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Custom Photo Your Light Will Always Shine - Memorial Gift For Pet Lovers, Dog Lovers, Cat Lovers - Personalized Mason Jar Light</t>
-  </si>
-  <si>
-    <t>Target chính_US_We Used To Lived In Your Balls - Gift For Fathers, Dad - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug</t>
-  </si>
-  <si>
-    <t>Post 2_Custom Photo I'm Always With You - Memorial Gift For Family, Friend - Personalized Engraved Bracelet_VideoAdsR_EBAH532HAL1774WP_090524</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Custom Photo I'm Always With You - Memorial Gift For Family, Friend - Personalized Engraved Bracelet</t>
-  </si>
-  <si>
-    <t>Step Dad Always Have My Back - Personalized 30 Oz Tumbler_VideoAdsR_TETB553NEL2278WP_080524</t>
-  </si>
-  <si>
-    <t>Target phụ_WW_Step Dad Always Have My Back - Personalized 30 Oz Tumbler</t>
-  </si>
-  <si>
-    <t>Target chính_US_Custom Photo I'm Always With You - Memorial Gift For Family, Friend - Personalized Engraved Bracelet</t>
-  </si>
-  <si>
-    <t>A Man And His Dog A Bond That Can't Be Broken - Personalized Window Hanging Suncatcher Ornament_VideoAdsR_SHTA388HAL2221WP_100524</t>
-  </si>
-  <si>
-    <t>Target chính_WW_A Man And His Dog A Bond That Can't Be Broken - Personalized Window Hanging Suncatcher Ornament</t>
-  </si>
-  <si>
-    <t>Target chính_US_If Love Could Have Saved You - Memorial Gift For Pet Lovers, Dog Mom, Dog Dad, Cat Mom, Cat Dad - Personalized Acrylic Car Hanger</t>
-  </si>
-  <si>
-    <t>I'm A Professional Cat Mom - Gift For Cat Lovers, Fur Mom - Personalized T Shirt_VideoAdsR_TSNA347HEL985WP_190424</t>
-  </si>
-  <si>
-    <t>Target chính_WW_I'm A Professional Cat Mom - Gift For Cat Lovers, Fur Mom - Personalized T Shirt</t>
-  </si>
-  <si>
-    <t>What Day Is Today Who Cares Retired - Retirement Gift For Women, Mom, Grandma - Personalized T Shirt_VideoAdsR_TSBD1090NAH3278WP_100424</t>
-  </si>
-  <si>
-    <t>All us_What Day Is Today Who Cares Retired - Retirement Gift For Women, Mom, Grandma - Personalized T Shirt</t>
-  </si>
-  <si>
-    <t>Family Bears - Gift For Parents, Father - Personalized Custom Shaped Wooden Puzzle_VideoAdsR_WZAH640ELE3117WP_120424</t>
-  </si>
-  <si>
-    <t>All us_Family Bears - Gift For Parents, Father - Personalized Custom Shaped Wooden Puzzle</t>
-  </si>
-  <si>
-    <t>Custom Photo Graduation Appreciation - Graduation Gift For Friends, Family - Personalized 2-Layered Wooden Plaque With Stand_VideoAdsR_PSTN1228ELE3138WP_120424</t>
-  </si>
-  <si>
-    <t>Target phụ_WW_Custom Photo Graduation Appreciation - Graduation Gift For Friends, Family - Personalized 2-Layered Wooden Plaque With Stand</t>
-  </si>
-  <si>
-    <t>Target chính_US_Drink In My Hand - Personalized Mason Jar Cup With Straw</t>
-  </si>
-  <si>
-    <t>08/05/24_Target Garden Pet_US_A Crazy Plant Lady &amp; Her Spoiled Rotten Dogs - Backyard Sign, Gift For Gardening Lovers, Gardeners, Dog Lovers - Personalized Classic Metal Signs</t>
-  </si>
-  <si>
-    <t>Papa Grandkids Hand Print - Personalized Mug_VideoAdsR_WMAK1118NAH3400WP_080524</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Papa Grandkids Hand Print - Personalized Mug</t>
-  </si>
-  <si>
-    <t>Just A Girl Boy Who Loves Traveling - Birthday Gift For Him, Her, Vacation Lovers - Personalized Custom Passport Cover, Passport Holder_VideoAdsR_PCAH305ELE2167WP_250424</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Just A Girl Boy Who Loves Traveling - Birthday Gift For Him, Her, Vacation Lovers - Personalized Custom Passport Cover, Passport Holder</t>
-  </si>
-  <si>
-    <t>You Are Five Stars Papa, We Love You To The Moon And Back - Personalized T Shirt_VideoAdsR_TSTR237HAL2222WP_100524</t>
-  </si>
-  <si>
-    <t>Target chính_US_You Are Five Stars Papa, We Love You To The Moon And Back - Personalized T Shirt</t>
-  </si>
-  <si>
-    <t>Target phụ_WW_A Man And His Dog A Bond That Can't Be Broken - Personalized Window Hanging Suncatcher Ornament</t>
-  </si>
-  <si>
-    <t>Calendar The Day You Became My Daddy - Gift For Father - Personalized 3D Led Light Wooden Base_VideoAdsR_LWKK865CIN2362WP_090524</t>
-  </si>
-  <si>
-    <t>Target chính_US_Calendar The Day You Became My Daddy - Gift For Father - Personalized 3D Led Light Wooden Base</t>
-  </si>
-  <si>
-    <t>Custom Photo 3D Cracked Pet Face - Gift For Dog Lovers - Personalized Decor Decal_VideoAdsR_DEDT1095NGO2188WP_130424</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Custom Photo 3D Cracked Pet Face - Gift For Dog Lovers - Personalized Decor Decal</t>
-  </si>
-  <si>
-    <t>The Legend Has Retired Weekly Schedule - Personalized Mug_VideoAdsR_WMAK1116NAH3395WP_080524</t>
-  </si>
-  <si>
-    <t>Target phụ_WW_The Legend Has Retired Weekly Schedule - Personalized Mug</t>
-  </si>
-  <si>
-    <t>I'm Not Retired I'm A Professional Grandpa - Personalized T Shirt_VideoAdsR_TSNV898NAH3398WP_100524</t>
-  </si>
-  <si>
-    <t>Target phụ_WW_I'm Not Retired I'm A Professional Grandpa - Personalized T Shirt</t>
-  </si>
-  <si>
-    <t>The Memories We've Made - Gift For Traveling Lovers - Personalized Leather Journal_VideoAdsR_LJDT1122HEL1031WP_240424</t>
-  </si>
-  <si>
-    <t>Target chính_US_The Memories We've Made - Gift For Traveling Lovers - Personalized Leather Journal</t>
-  </si>
-  <si>
-    <t>All us_Calendar The Day You Became My Daddy - Gift For Father - Personalized 3D Led Light Wooden Base</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Calendar The Day You Became My Daddy - Gift For Father - Personalized 3D Led Light Wooden Base</t>
-  </si>
-  <si>
-    <t>This Awesome Daddy Papa Belongs To - Personalized Unisex Beach Shorts_VideoAdsR_UBYN476ELE3205WP_100524</t>
-  </si>
-  <si>
-    <t>Target chính_WW_This Awesome Daddy Papa Belongs To - Personalized Unisex Beach Shorts</t>
-  </si>
-  <si>
-    <t>Target chính_US_A Crazy Plant Lady &amp; Her Spoiled Rotten Dogs - Backyard Sign, Gift For Gardening Lovers, Gardeners, Dog Lovers - Personalized Classic Metal Signs</t>
-  </si>
-  <si>
-    <t>Post 2_This Grandpa Daddy Belongs To - Gift For Dad, Father, Grandfather - Personalized Tape Measure_VideoAdsR_TMDT1098HEL982WP_130424</t>
-  </si>
-  <si>
-    <t>And Into The Garden I Go - Backyard Sign, Gift For Gardening Lovers, Gardeners - Personalized Classic Metal Signs_VideoAdsR_MSNV887NAH3351WP_240424</t>
-  </si>
-  <si>
-    <t>Target chính_WW_And Into The Garden I Go - Backyard Sign, Gift For Gardening Lovers, Gardeners - Personalized Classic Metal Signs</t>
-  </si>
-  <si>
-    <t>Target Motherhood_WW_Tree Family - Gift For Mother, Father, Family - Personalized Custom Shaped Wooden Puzzle - Copy</t>
-  </si>
-  <si>
-    <t>Funny Dogs And Cats - Gift For Pet Lovers - Personalized Auto Sunshade_VideoAdsR_SUBD1118HAL2202WP_100524</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Funny Dogs And Cats - Gift For Pet Lovers - Personalized Auto Sunshade</t>
-  </si>
-  <si>
-    <t>Target chính_WW_Mom Grandma Kids Butterflies Leopard Pattern - Gift For Mother, Grandmother - Personalized Women's Sleep Tee</t>
-  </si>
-  <si>
-    <t>Target chính_WW_The Memories We've Made - Gift For Traveling Lovers - Personalized Leather Journal</t>
-  </si>
-  <si>
-    <t>All us_Custom Photo 3D Cracked Pet Face - Gift For Dog Lovers - Personalized Decor Decal</t>
-  </si>
-  <si>
-    <t>All us_Tree Family - Gift For Mother, Father, Family - Personalized Custom Shaped Wooden Puzzle</t>
-  </si>
-  <si>
-    <t>23/02_Target Grandparent_WW_Nana, Mom, Auntie Family Sunflower - Birthday, Loving Gift For Mother, Grandma, Grandmother - Personalized Acrylic Car Hanger</t>
-  </si>
-  <si>
-    <t>05/04/24_Target Married_WW_I Miss You I Know - Memorial Gift For Family, Friends, Siblings - Personalized Acrylic Car Hanger - Copy</t>
-  </si>
-  <si>
-    <t>Target chính_WW_I Miss You I Know - Memorial Gift For Family, Friends, Siblings - Personalized Acrylic Car Hanger</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +977,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:N112"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1109,19 +1055,19 @@
         <v>16</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>332353.0</v>
+        <v>75872.0</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>354864.0</v>
+        <v>81317.0</v>
       </c>
       <c r="F2" s="7" t="n">
-        <v>1.0677322</v>
+        <v>1.07176561</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="8" t="n">
-        <v>3110.49</v>
+        <v>987.2</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>18</v>
@@ -1130,10 +1076,10 @@
         <v>19</v>
       </c>
       <c r="K2" s="7" t="n">
-        <v>112.0</v>
+        <v>44.0</v>
       </c>
       <c r="L2" s="7" t="n">
-        <v>27.77223214</v>
+        <v>22.43636364</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>20</v>
@@ -1147,25 +1093,25 @@
         <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>78438.0</v>
+        <v>33600.0</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>81670.0</v>
+        <v>37572.0</v>
       </c>
       <c r="F3" s="7" t="n">
-        <v>1.04120452</v>
+        <v>1.11821429</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="8" t="n">
-        <v>673.5</v>
+        <v>273.6</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>18</v>
@@ -1174,10 +1120,10 @@
         <v>19</v>
       </c>
       <c r="K3" s="7" t="n">
-        <v>36.0</v>
+        <v>14.0</v>
       </c>
       <c r="L3" s="7" t="n">
-        <v>18.70833333</v>
+        <v>19.54285714</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>20</v>
@@ -1194,22 +1140,22 @@
         <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>39224.0</v>
+        <v>15313.0</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>42862.0</v>
+        <v>17968.0</v>
       </c>
       <c r="F4" s="7" t="n">
-        <v>1.09274934</v>
+        <v>1.17338209</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="8" t="n">
-        <v>348.6</v>
+        <v>191.0</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>18</v>
@@ -1218,10 +1164,10 @@
         <v>19</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>38.73333333</v>
+        <v>17.36363636</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>20</v>
@@ -1235,28 +1181,28 @@
         <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>18747.0</v>
+        <v>15165.0</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>21563.0</v>
+        <v>17678.0</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>1.1502107</v>
+        <v>1.16571052</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="8" t="n">
-        <v>231.15</v>
+        <v>118.51</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>19</v>
@@ -1265,7 +1211,7 @@
         <v>12.0</v>
       </c>
       <c r="L5" s="7" t="n">
-        <v>19.2625</v>
+        <v>9.87583333</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>20</v>
@@ -1279,37 +1225,37 @@
         <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>41414.0</v>
+        <v>7765.0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>46218.0</v>
+        <v>9265.0</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>1.11599942</v>
+        <v>1.1931745</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="8" t="n">
-        <v>217.06</v>
+        <v>116.73</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K6" s="7" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="L6" s="7" t="n">
-        <v>14.47066667</v>
+        <v>58.365</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>20</v>
@@ -1326,22 +1272,22 @@
         <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>14740.0</v>
+        <v>11604.0</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14740.0</v>
+        <v>13103.0</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>1.0</v>
+        <v>1.12917959</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="8" t="n">
-        <v>127.68</v>
+        <v>115.63</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>18</v>
@@ -1350,10 +1296,10 @@
         <v>19</v>
       </c>
       <c r="K7" s="7" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L7" s="7" t="n">
-        <v>31.92</v>
+        <v>23.126</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>20</v>
@@ -1367,25 +1313,25 @@
         <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>12500.0</v>
+        <v>9968.0</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>13457.0</v>
+        <v>10920.0</v>
       </c>
       <c r="F8" s="7" t="n">
-        <v>1.07656</v>
+        <v>1.09550562</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="8" t="n">
-        <v>114.62</v>
+        <v>99.21</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>18</v>
@@ -1394,10 +1340,10 @@
         <v>19</v>
       </c>
       <c r="K8" s="7" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="L8" s="7" t="n">
-        <v>28.655</v>
+        <v>49.605</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>20</v>
@@ -1411,37 +1357,37 @@
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>6827.0</v>
+        <v>10494.0</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>9633.0</v>
+        <v>11802.0</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>1.41101509</v>
+        <v>1.12464265</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="8" t="n">
-        <v>113.75</v>
+        <v>98.79</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="7" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="L9" s="7" t="n">
-        <v>28.4375</v>
+        <v>16.465</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>20</v>
@@ -1452,7 +1398,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>34</v>
@@ -1461,31 +1407,31 @@
         <v>35</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>8310.0</v>
+        <v>5708.0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>9524.0</v>
+        <v>6540.0</v>
       </c>
       <c r="F10" s="7" t="n">
-        <v>1.14608905</v>
+        <v>1.14576034</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="8" t="n">
-        <v>96.1</v>
+        <v>68.94</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K10" s="7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="L10" s="7" t="n">
-        <v>24.025</v>
+        <v>68.94</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>20</v>
@@ -1505,31 +1451,31 @@
         <v>37</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10991.0</v>
+        <v>3760.0</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12370.0</v>
+        <v>5717.0</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>1.12546629</v>
+        <v>1.52047872</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="8" t="n">
-        <v>96.18</v>
+        <v>59.67</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K11" s="7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="L11" s="7" t="n">
-        <v>24.045</v>
+        <v>59.67</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>20</v>
@@ -1549,19 +1495,19 @@
         <v>39</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>8417.0</v>
+        <v>8767.0</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>9776.0</v>
+        <v>9566.0</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>1.16145895</v>
+        <v>1.09113722</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="8" t="n">
-        <v>94.71</v>
+        <v>59.6</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>18</v>
@@ -1570,10 +1516,10 @@
         <v>19</v>
       </c>
       <c r="K12" s="7" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="L12" s="7" t="n">
-        <v>18.942</v>
+        <v>9.93333333</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>20</v>
@@ -1584,28 +1530,28 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>9606.0</v>
+        <v>5654.0</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>10293.0</v>
+        <v>6649.0</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>1.0715178</v>
+        <v>1.17598161</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H13" s="8" t="n">
-        <v>85.66</v>
+        <v>59.17</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>18</v>
@@ -1614,10 +1560,10 @@
         <v>19</v>
       </c>
       <c r="K13" s="7" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="L13" s="7" t="n">
-        <v>12.23714286</v>
+        <v>11.834</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>20</v>
@@ -1631,25 +1577,25 @@
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8396.0</v>
+        <v>6789.0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9110.0</v>
+        <v>7529.0</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>1.0850405</v>
+        <v>1.10899985</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="8" t="n">
-        <v>65.36</v>
+        <v>59.06</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>18</v>
@@ -1658,10 +1604,10 @@
         <v>19</v>
       </c>
       <c r="K14" s="7" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="L14" s="7" t="n">
-        <v>16.34</v>
+        <v>9.84333333</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>20</v>
@@ -1678,22 +1624,22 @@
         <v>44</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3483.0</v>
+        <v>3216.0</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4183.0</v>
+        <v>4202.0</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>1.20097617</v>
+        <v>1.30659204</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="8" t="n">
-        <v>59.33</v>
+        <v>56.02</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>18</v>
@@ -1701,11 +1647,11 @@
       <c r="J15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="7" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="L15" s="7" t="n">
-        <v>14.8325</v>
+      <c r="K15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>20</v>
@@ -1725,19 +1671,19 @@
         <v>47</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>3783.0</v>
+        <v>2640.0</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>5456.0</v>
+        <v>3249.0</v>
       </c>
       <c r="F16" s="7" t="n">
-        <v>1.44224161</v>
+        <v>1.23068182</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H16" s="8" t="n">
-        <v>58.29</v>
+        <v>51.21</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>18</v>
@@ -1746,10 +1692,10 @@
         <v>19</v>
       </c>
       <c r="K16" s="7" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="L16" s="7" t="n">
-        <v>58.29</v>
+        <v>17.07</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>20</v>
@@ -1769,19 +1715,19 @@
         <v>49</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>3668.0</v>
+        <v>2061.0</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>4451.0</v>
+        <v>2661.0</v>
       </c>
       <c r="F17" s="7" t="n">
-        <v>1.21346783</v>
+        <v>1.29112082</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="8" t="n">
-        <v>57.21</v>
+        <v>49.56</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>18</v>
@@ -1790,10 +1736,10 @@
         <v>19</v>
       </c>
       <c r="K17" s="7" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="L17" s="7" t="n">
-        <v>14.3025</v>
+        <v>7.08</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>20</v>
@@ -1807,25 +1753,25 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10023.0</v>
+        <v>4329.0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>10936.0</v>
+        <v>4686.0</v>
       </c>
       <c r="F18" s="7" t="n">
-        <v>1.09109049</v>
+        <v>1.08246708</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H18" s="8" t="n">
-        <v>56.17</v>
+        <v>49.55</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>18</v>
@@ -1833,11 +1779,11 @@
       <c r="J18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L18" s="7" t="n">
-        <v>56.17</v>
+      <c r="K18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>20</v>
@@ -1848,28 +1794,28 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>3585.0</v>
+        <v>4714.0</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5137.0</v>
+        <v>5124.0</v>
       </c>
       <c r="F19" s="7" t="n">
-        <v>1.43291492</v>
+        <v>1.08697497</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="8" t="n">
-        <v>49.3</v>
+        <v>49.07</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>18</v>
@@ -1878,10 +1824,10 @@
         <v>19</v>
       </c>
       <c r="K19" s="7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="L19" s="7" t="n">
-        <v>12.325</v>
+        <v>49.07</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>20</v>
@@ -1901,19 +1847,19 @@
         <v>54</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>4555.0</v>
+        <v>1598.0</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>4973.0</v>
+        <v>1896.0</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>1.09176729</v>
+        <v>1.1864831</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H20" s="8" t="n">
-        <v>47.87</v>
+        <v>48.68</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>18</v>
@@ -1922,10 +1868,10 @@
         <v>19</v>
       </c>
       <c r="K20" s="7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L20" s="7" t="n">
-        <v>23.935</v>
+        <v>16.22666667</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>20</v>
@@ -1945,19 +1891,19 @@
         <v>56</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2878.0</v>
+        <v>6140.0</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>7397.0</v>
+        <v>6526.0</v>
       </c>
       <c r="F21" s="7" t="n">
-        <v>2.57018763</v>
+        <v>1.06286645</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H21" s="8" t="n">
-        <v>47.4</v>
+        <v>44.45</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>18</v>
@@ -1966,10 +1912,10 @@
         <v>19</v>
       </c>
       <c r="K21" s="7" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="L21" s="7" t="n">
-        <v>9.48</v>
+        <v>22.225</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>20</v>
@@ -1983,37 +1929,37 @@
         <v>14</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2174.0</v>
+        <v>3613.0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2405.0</v>
+        <v>4058.0</v>
       </c>
       <c r="F22" s="7" t="n">
-        <v>1.10625575</v>
+        <v>1.12316634</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H22" s="8" t="n">
-        <v>42.01</v>
+        <v>38.88</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K22" s="7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="L22" s="7" t="n">
-        <v>14.00333333</v>
+        <v>38.88</v>
       </c>
       <c r="M22" s="9" t="s">
         <v>20</v>
@@ -2027,25 +1973,25 @@
         <v>14</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>7037.0</v>
+        <v>2286.0</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7225.0</v>
+        <v>2452.0</v>
       </c>
       <c r="F23" s="7" t="n">
-        <v>1.02671593</v>
+        <v>1.07261592</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H23" s="8" t="n">
-        <v>41.3</v>
+        <v>30.28</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>18</v>
@@ -2054,10 +2000,10 @@
         <v>19</v>
       </c>
       <c r="K23" s="7" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="L23" s="7" t="n">
-        <v>8.26</v>
+        <v>30.28</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>20</v>
@@ -2068,31 +2014,31 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>4367.0</v>
+        <v>1914.0</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>4836.0</v>
+        <v>2494.0</v>
       </c>
       <c r="F24" s="7" t="n">
-        <v>1.10739638</v>
+        <v>1.3030303</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H24" s="8" t="n">
-        <v>39.81</v>
+        <v>30.27</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>
@@ -2101,7 +2047,7 @@
         <v>2.0</v>
       </c>
       <c r="L24" s="7" t="n">
-        <v>19.905</v>
+        <v>15.135</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>20</v>
@@ -2115,28 +2061,28 @@
         <v>14</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>4404.0</v>
+        <v>2508.0</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>5028.0</v>
+        <v>3007.0</v>
       </c>
       <c r="F25" s="7" t="n">
-        <v>1.14168937</v>
+        <v>1.19896332</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H25" s="8" t="n">
-        <v>38.08</v>
+        <v>29.82</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>19</v>
@@ -2145,7 +2091,7 @@
         <v>2.0</v>
       </c>
       <c r="L25" s="7" t="n">
-        <v>19.04</v>
+        <v>14.91</v>
       </c>
       <c r="M25" s="9" t="s">
         <v>20</v>
@@ -2159,37 +2105,37 @@
         <v>14</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2707.0</v>
+        <v>3733.0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>3418.0</v>
+        <v>4280.0</v>
       </c>
       <c r="F26" s="7" t="n">
-        <v>1.26265238</v>
+        <v>1.14653094</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H26" s="8" t="n">
-        <v>37.67</v>
+        <v>29.56</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>20</v>
@@ -2203,37 +2149,37 @@
         <v>14</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2977.0</v>
+        <v>1718.0</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3307.0</v>
+        <v>1872.0</v>
       </c>
       <c r="F27" s="7" t="n">
-        <v>1.11084985</v>
+        <v>1.08963912</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H27" s="8" t="n">
-        <v>31.49</v>
+        <v>27.64</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>65</v>
+      <c r="K27" s="7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L27" s="7" t="n">
+        <v>13.82</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>20</v>
@@ -2244,7 +2190,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>68</v>
@@ -2253,31 +2199,31 @@
         <v>69</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>2661.0</v>
+        <v>794.0</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>3196.0</v>
+        <v>1035.0</v>
       </c>
       <c r="F28" s="7" t="n">
-        <v>1.20105224</v>
+        <v>1.30352645</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H28" s="8" t="n">
-        <v>30.16</v>
+        <v>24.96</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K28" s="7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L28" s="7" t="n">
-        <v>10.05333333</v>
+      <c r="K28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>20</v>
@@ -2294,34 +2240,34 @@
         <v>70</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>1378.0</v>
+        <v>1377.0</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>1668.0</v>
+        <v>1764.0</v>
       </c>
       <c r="F29" s="7" t="n">
-        <v>1.21044993</v>
+        <v>1.28104575</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H29" s="8" t="n">
-        <v>29.44</v>
+        <v>24.63</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K29" s="7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L29" s="7" t="n">
-        <v>29.44</v>
+        <v>12.315</v>
       </c>
       <c r="M29" s="9" t="s">
         <v>20</v>
@@ -2335,37 +2281,37 @@
         <v>14</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>4560.0</v>
+        <v>2105.0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>5148.0</v>
+        <v>2482.0</v>
       </c>
       <c r="F30" s="7" t="n">
-        <v>1.12894737</v>
+        <v>1.17909739</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H30" s="8" t="n">
-        <v>29.0</v>
+        <v>23.46</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>65</v>
+      <c r="K30" s="7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L30" s="7" t="n">
+        <v>11.73</v>
       </c>
       <c r="M30" s="9" t="s">
         <v>20</v>
@@ -2379,25 +2325,25 @@
         <v>14</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2479.0</v>
+        <v>1372.0</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2752.0</v>
+        <v>1823.0</v>
       </c>
       <c r="F31" s="7" t="n">
-        <v>1.11012505</v>
+        <v>1.3287172</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H31" s="8" t="n">
-        <v>28.48</v>
+        <v>22.77</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>18</v>
@@ -2406,10 +2352,10 @@
         <v>19</v>
       </c>
       <c r="K31" s="7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="L31" s="7" t="n">
-        <v>9.49333333</v>
+        <v>22.77</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>20</v>
@@ -2420,40 +2366,40 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>2508.0</v>
+        <v>1383.0</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>3148.0</v>
+        <v>1708.0</v>
       </c>
       <c r="F32" s="7" t="n">
-        <v>1.25518341</v>
+        <v>1.23499638</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H32" s="8" t="n">
-        <v>28.41</v>
+        <v>22.23</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K32" s="7" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L32" s="7" t="n">
-        <v>9.47</v>
+        <v>11.115</v>
       </c>
       <c r="M32" s="9" t="s">
         <v>20</v>
@@ -2467,25 +2413,25 @@
         <v>14</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>3738.0</v>
+        <v>1369.0</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>4129.0</v>
+        <v>3639.0</v>
       </c>
       <c r="F33" s="7" t="n">
-        <v>1.10460139</v>
+        <v>2.65814463</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H33" s="8" t="n">
-        <v>28.09</v>
+        <v>21.13</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>18</v>
@@ -2494,10 +2440,10 @@
         <v>19</v>
       </c>
       <c r="K33" s="7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L33" s="7" t="n">
-        <v>14.045</v>
+        <v>21.13</v>
       </c>
       <c r="M33" s="9" t="s">
         <v>20</v>
@@ -2508,40 +2454,40 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>723.0</v>
+        <v>1572.0</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1009.0</v>
+        <v>1968.0</v>
       </c>
       <c r="F34" s="7" t="n">
-        <v>1.395574</v>
+        <v>1.2519084</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H34" s="8" t="n">
-        <v>25.76</v>
+        <v>20.95</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K34" s="7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L34" s="7" t="n">
-        <v>25.76</v>
+        <v>10.475</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>20</v>
@@ -2552,40 +2498,40 @@
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>2694.0</v>
+        <v>1283.0</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>3056.0</v>
+        <v>1889.0</v>
       </c>
       <c r="F35" s="7" t="n">
-        <v>1.13437268</v>
+        <v>1.47233048</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H35" s="8" t="n">
-        <v>23.65</v>
+        <v>20.38</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K35" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L35" s="7" t="n">
-        <v>23.65</v>
+      <c r="K35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="M35" s="9" t="s">
         <v>20</v>
@@ -2599,25 +2545,25 @@
         <v>14</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D36" s="6" t="n">
-        <v>1201.0</v>
+        <v>1162.0</v>
       </c>
       <c r="E36" s="6" t="n">
-        <v>1371.0</v>
+        <v>1374.0</v>
       </c>
       <c r="F36" s="7" t="n">
-        <v>1.14154871</v>
+        <v>1.18244406</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="8" t="n">
-        <v>23.54</v>
+        <v>20.22</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>18</v>
@@ -2626,10 +2572,10 @@
         <v>19</v>
       </c>
       <c r="K36" s="7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="L36" s="7" t="n">
-        <v>7.84666667</v>
+        <v>20.22</v>
       </c>
       <c r="M36" s="9" t="s">
         <v>20</v>
@@ -2643,37 +2589,37 @@
         <v>14</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>2007.0</v>
+        <v>1379.0</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>2189.0</v>
+        <v>1913.0</v>
       </c>
       <c r="F37" s="7" t="n">
-        <v>1.09068261</v>
+        <v>1.38723713</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H37" s="8" t="n">
-        <v>19.13</v>
+        <v>19.72</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K37" s="7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="L37" s="7" t="n">
-        <v>6.37666667</v>
+        <v>19.72</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>20</v>
@@ -2684,40 +2630,40 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1691.0</v>
+        <v>1795.0</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2666.0</v>
+        <v>2166.0</v>
       </c>
       <c r="F38" s="7" t="n">
-        <v>1.5765819</v>
+        <v>1.20668524</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H38" s="8" t="n">
-        <v>18.81</v>
+        <v>19.62</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K38" s="7" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="L38" s="7" t="n">
-        <v>4.7025</v>
+      <c r="K38" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="M38" s="9" t="s">
         <v>20</v>
@@ -2731,25 +2677,25 @@
         <v>14</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1021.0</v>
+        <v>2149.0</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1196.0</v>
+        <v>2295.0</v>
       </c>
       <c r="F39" s="7" t="n">
-        <v>1.17140059</v>
+        <v>1.06793858</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H39" s="8" t="n">
-        <v>18.5</v>
+        <v>19.51</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>18</v>
@@ -2761,7 +2707,7 @@
         <v>1.0</v>
       </c>
       <c r="L39" s="7" t="n">
-        <v>18.5</v>
+        <v>19.51</v>
       </c>
       <c r="M39" s="9" t="s">
         <v>20</v>
@@ -2775,25 +2721,25 @@
         <v>14</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D40" s="6" t="n">
-        <v>533.0</v>
+        <v>1485.0</v>
       </c>
       <c r="E40" s="6" t="n">
-        <v>567.0</v>
+        <v>1658.0</v>
       </c>
       <c r="F40" s="7" t="n">
-        <v>1.06378987</v>
+        <v>1.11649832</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H40" s="8" t="n">
-        <v>18.04</v>
+        <v>19.45</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>18</v>
@@ -2801,11 +2747,11 @@
       <c r="J40" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K40" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L40" s="7" t="n">
-        <v>18.04</v>
+      <c r="K40" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="M40" s="9" t="s">
         <v>20</v>
@@ -2816,28 +2762,28 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D41" s="6" t="n">
-        <v>781.0</v>
+        <v>1423.0</v>
       </c>
       <c r="E41" s="6" t="n">
-        <v>1229.0</v>
+        <v>2014.0</v>
       </c>
       <c r="F41" s="7" t="n">
-        <v>1.57362356</v>
+        <v>1.41531975</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H41" s="8" t="n">
-        <v>17.62</v>
+        <v>19.41</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>18</v>
@@ -2846,10 +2792,10 @@
         <v>19</v>
       </c>
       <c r="K41" s="7" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="L41" s="7" t="n">
-        <v>17.62</v>
+        <v>6.47</v>
       </c>
       <c r="M41" s="9" t="s">
         <v>20</v>
@@ -2863,25 +2809,25 @@
         <v>14</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D42" s="6" t="n">
-        <v>1342.0</v>
+        <v>832.0</v>
       </c>
       <c r="E42" s="6" t="n">
-        <v>1774.0</v>
+        <v>930.0</v>
       </c>
       <c r="F42" s="7" t="n">
-        <v>1.3219076</v>
+        <v>1.11778846</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H42" s="8" t="n">
-        <v>17.58</v>
+        <v>19.0</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>18</v>
@@ -2889,11 +2835,11 @@
       <c r="J42" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K42" s="7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L42" s="7" t="n">
-        <v>8.79</v>
+      <c r="K42" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="M42" s="9" t="s">
         <v>20</v>
@@ -2904,40 +2850,40 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>1752.0</v>
+        <v>1498.0</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>2030.0</v>
+        <v>1680.0</v>
       </c>
       <c r="F43" s="7" t="n">
-        <v>1.1586758</v>
+        <v>1.12149533</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H43" s="8" t="n">
-        <v>17.24</v>
+        <v>18.53</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K43" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L43" s="7" t="n">
-        <v>17.24</v>
+      <c r="K43" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="M43" s="9" t="s">
         <v>20</v>
@@ -2951,25 +2897,25 @@
         <v>14</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>803.0</v>
+        <v>1151.0</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>937.0</v>
+        <v>1493.0</v>
       </c>
       <c r="F44" s="7" t="n">
-        <v>1.16687422</v>
+        <v>1.29713293</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H44" s="8" t="n">
-        <v>15.58</v>
+        <v>18.48</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>18</v>
@@ -2977,11 +2923,11 @@
       <c r="J44" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K44" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>65</v>
+      <c r="K44" s="7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L44" s="7" t="n">
+        <v>9.24</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>20</v>
@@ -2992,40 +2938,40 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>979.0</v>
+        <v>1276.0</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1192.0</v>
+        <v>1483.0</v>
       </c>
       <c r="F45" s="7" t="n">
-        <v>1.21756895</v>
+        <v>1.16222571</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H45" s="8" t="n">
-        <v>15.47</v>
+        <v>17.79</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K45" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>65</v>
+      <c r="K45" s="7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L45" s="7" t="n">
+        <v>17.79</v>
       </c>
       <c r="M45" s="9" t="s">
         <v>20</v>
@@ -3039,37 +2985,37 @@
         <v>14</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>102</v>
       </c>
       <c r="D46" s="6" t="n">
-        <v>934.0</v>
+        <v>2001.0</v>
       </c>
       <c r="E46" s="6" t="n">
-        <v>1084.0</v>
+        <v>2157.0</v>
       </c>
       <c r="F46" s="7" t="n">
-        <v>1.16059957</v>
+        <v>1.07796102</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H46" s="8" t="n">
-        <v>14.87</v>
+        <v>17.51</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M46" s="9" t="s">
         <v>20</v>
@@ -3080,7 +3026,7 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>103</v>
@@ -3089,19 +3035,19 @@
         <v>104</v>
       </c>
       <c r="D47" s="6" t="n">
-        <v>1550.0</v>
+        <v>899.0</v>
       </c>
       <c r="E47" s="6" t="n">
-        <v>1755.0</v>
+        <v>1278.0</v>
       </c>
       <c r="F47" s="7" t="n">
-        <v>1.13225806</v>
+        <v>1.42157953</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H47" s="8" t="n">
-        <v>14.14</v>
+        <v>14.96</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>18</v>
@@ -3109,11 +3055,11 @@
       <c r="J47" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K47" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>65</v>
+      <c r="K47" s="7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L47" s="7" t="n">
+        <v>7.48</v>
       </c>
       <c r="M47" s="9" t="s">
         <v>20</v>
@@ -3127,25 +3073,25 @@
         <v>14</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>105</v>
       </c>
       <c r="D48" s="6" t="n">
-        <v>789.0</v>
+        <v>914.0</v>
       </c>
       <c r="E48" s="6" t="n">
-        <v>928.0</v>
+        <v>1014.0</v>
       </c>
       <c r="F48" s="7" t="n">
-        <v>1.17617237</v>
+        <v>1.10940919</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H48" s="8" t="n">
-        <v>12.85</v>
+        <v>14.87</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>18</v>
@@ -3154,10 +3100,10 @@
         <v>19</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M48" s="9" t="s">
         <v>20</v>
@@ -3171,25 +3117,25 @@
         <v>14</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="D49" s="6" t="n">
-        <v>698.0</v>
+        <v>1288.0</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>797.0</v>
+        <v>1364.0</v>
       </c>
       <c r="F49" s="7" t="n">
-        <v>1.14183381</v>
+        <v>1.05900621</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H49" s="8" t="n">
-        <v>12.18</v>
+        <v>14.8</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>18</v>
@@ -3197,11 +3143,11 @@
       <c r="J49" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K49" s="7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L49" s="7" t="n">
-        <v>4.06</v>
+      <c r="K49" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="M49" s="9" t="s">
         <v>20</v>
@@ -3212,40 +3158,40 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="D50" s="6" t="n">
-        <v>14083.0</v>
+        <v>1297.0</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>15901.0</v>
+        <v>1770.0</v>
       </c>
       <c r="F50" s="7" t="n">
-        <v>1.12909181</v>
+        <v>1.36468774</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H50" s="8" t="n">
-        <v>11.28</v>
+        <v>14.74</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J50" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K50" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L50" s="7" t="n">
-        <v>11.28</v>
+      <c r="K50" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="M50" s="9" t="s">
         <v>20</v>
@@ -3256,40 +3202,40 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="D51" s="6" t="n">
-        <v>1720.0</v>
+        <v>11500.0</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1921.0</v>
+        <v>13203.0</v>
       </c>
       <c r="F51" s="7" t="n">
-        <v>1.11686047</v>
+        <v>1.14808696</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H51" s="8" t="n">
-        <v>10.83</v>
+        <v>14.69</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K51" s="7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L51" s="7" t="n">
-        <v>5.415</v>
+      <c r="K51" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="M51" s="9" t="s">
         <v>20</v>
@@ -3303,25 +3249,25 @@
         <v>14</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="D52" s="6" t="n">
-        <v>511.0</v>
+        <v>925.0</v>
       </c>
       <c r="E52" s="6" t="n">
-        <v>574.0</v>
+        <v>1043.0</v>
       </c>
       <c r="F52" s="7" t="n">
-        <v>1.12328767</v>
+        <v>1.12756757</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H52" s="8" t="n">
-        <v>10.61</v>
+        <v>13.57</v>
       </c>
       <c r="I52" s="7" t="s">
         <v>18</v>
@@ -3329,11 +3275,11 @@
       <c r="J52" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K52" s="7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L52" s="7" t="n">
-        <v>5.305</v>
+      <c r="K52" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="M52" s="9" t="s">
         <v>20</v>
@@ -3347,25 +3293,25 @@
         <v>14</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>114</v>
       </c>
       <c r="D53" s="6" t="n">
-        <v>410.0</v>
+        <v>518.0</v>
       </c>
       <c r="E53" s="6" t="n">
-        <v>476.0</v>
+        <v>568.0</v>
       </c>
       <c r="F53" s="7" t="n">
-        <v>1.16097561</v>
+        <v>1.0965251</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H53" s="8" t="n">
-        <v>10.59</v>
+        <v>13.44</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>18</v>
@@ -3374,10 +3320,10 @@
         <v>19</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M53" s="9" t="s">
         <v>20</v>
@@ -3397,19 +3343,19 @@
         <v>116</v>
       </c>
       <c r="D54" s="6" t="n">
-        <v>546.0</v>
+        <v>992.0</v>
       </c>
       <c r="E54" s="6" t="n">
-        <v>757.0</v>
+        <v>1123.0</v>
       </c>
       <c r="F54" s="7" t="n">
-        <v>1.38644689</v>
+        <v>1.13205645</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H54" s="8" t="n">
-        <v>10.42</v>
+        <v>12.39</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>18</v>
@@ -3418,10 +3364,10 @@
         <v>19</v>
       </c>
       <c r="K54" s="7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L54" s="7" t="n">
-        <v>5.21</v>
+        <v>12.39</v>
       </c>
       <c r="M54" s="9" t="s">
         <v>20</v>
@@ -3435,25 +3381,25 @@
         <v>14</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="D55" s="6" t="n">
-        <v>539.0</v>
+        <v>735.0</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>634.0</v>
+        <v>914.0</v>
       </c>
       <c r="F55" s="7" t="n">
-        <v>1.17625232</v>
+        <v>1.24353741</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H55" s="8" t="n">
-        <v>10.4</v>
+        <v>12.29</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>18</v>
@@ -3462,10 +3408,10 @@
         <v>19</v>
       </c>
       <c r="K55" s="7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L55" s="7" t="n">
-        <v>10.4</v>
+        <v>6.145</v>
       </c>
       <c r="M55" s="9" t="s">
         <v>20</v>
@@ -3479,25 +3425,25 @@
         <v>14</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>770.0</v>
+        <v>676.0</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>835.0</v>
+        <v>734.0</v>
       </c>
       <c r="F56" s="7" t="n">
-        <v>1.08441558</v>
+        <v>1.08579882</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H56" s="8" t="n">
-        <v>10.43</v>
+        <v>12.03</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>18</v>
@@ -3505,11 +3451,11 @@
       <c r="J56" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K56" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L56" s="7" t="n">
-        <v>10.43</v>
+      <c r="K56" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="M56" s="9" t="s">
         <v>20</v>
@@ -3523,25 +3469,25 @@
         <v>14</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>120</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>507.0</v>
+        <v>602.0</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>628.0</v>
+        <v>903.0</v>
       </c>
       <c r="F57" s="7" t="n">
-        <v>1.23865878</v>
+        <v>1.5</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H57" s="8" t="n">
-        <v>10.33</v>
+        <v>11.71</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>18</v>
@@ -3553,7 +3499,7 @@
         <v>2.0</v>
       </c>
       <c r="L57" s="7" t="n">
-        <v>5.165</v>
+        <v>5.855</v>
       </c>
       <c r="M57" s="9" t="s">
         <v>20</v>
@@ -3573,19 +3519,19 @@
         <v>122</v>
       </c>
       <c r="D58" s="6" t="n">
-        <v>690.0</v>
+        <v>373.0</v>
       </c>
       <c r="E58" s="6" t="n">
-        <v>833.0</v>
+        <v>453.0</v>
       </c>
       <c r="F58" s="7" t="n">
-        <v>1.20724638</v>
+        <v>1.21447721</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H58" s="8" t="n">
-        <v>10.35</v>
+        <v>11.04</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>18</v>
@@ -3597,7 +3543,7 @@
         <v>1.0</v>
       </c>
       <c r="L58" s="7" t="n">
-        <v>10.35</v>
+        <v>11.04</v>
       </c>
       <c r="M58" s="9" t="s">
         <v>20</v>
@@ -3611,25 +3557,25 @@
         <v>14</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D59" s="6" t="n">
-        <v>571.0</v>
+        <v>379.0</v>
       </c>
       <c r="E59" s="6" t="n">
-        <v>609.0</v>
+        <v>435.0</v>
       </c>
       <c r="F59" s="7" t="n">
-        <v>1.06654991</v>
+        <v>1.14775726</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H59" s="8" t="n">
-        <v>10.25</v>
+        <v>11.0</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>18</v>
@@ -3638,10 +3584,10 @@
         <v>19</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M59" s="9" t="s">
         <v>20</v>
@@ -3652,7 +3598,7 @@
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>125</v>
@@ -3661,31 +3607,31 @@
         <v>126</v>
       </c>
       <c r="D60" s="6" t="n">
-        <v>2500.0</v>
+        <v>1314.0</v>
       </c>
       <c r="E60" s="6" t="n">
-        <v>2718.0</v>
+        <v>1459.0</v>
       </c>
       <c r="F60" s="7" t="n">
-        <v>1.0872</v>
+        <v>1.11035008</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H60" s="8" t="n">
-        <v>9.89</v>
+        <v>10.86</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>65</v>
+        <v>127</v>
+      </c>
+      <c r="K60" s="7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L60" s="7" t="n">
+        <v>3.62</v>
       </c>
       <c r="M60" s="9" t="s">
         <v>20</v>
@@ -3699,25 +3645,25 @@
         <v>14</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D61" s="6" t="n">
-        <v>1298.0</v>
+        <v>665.0</v>
       </c>
       <c r="E61" s="6" t="n">
-        <v>1355.0</v>
+        <v>979.0</v>
       </c>
       <c r="F61" s="7" t="n">
-        <v>1.04391371</v>
+        <v>1.47218045</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H61" s="8" t="n">
-        <v>9.95</v>
+        <v>10.71</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>18</v>
@@ -3725,11 +3671,11 @@
       <c r="J61" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K61" s="7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L61" s="7" t="n">
-        <v>4.975</v>
+      <c r="K61" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="M61" s="9" t="s">
         <v>20</v>
@@ -3743,25 +3689,25 @@
         <v>14</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D62" s="6" t="n">
-        <v>904.0</v>
+        <v>1166.0</v>
       </c>
       <c r="E62" s="6" t="n">
-        <v>943.0</v>
+        <v>1399.0</v>
       </c>
       <c r="F62" s="7" t="n">
-        <v>1.04314159</v>
+        <v>1.19982847</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H62" s="8" t="n">
-        <v>9.82</v>
+        <v>10.67</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>18</v>
@@ -3773,7 +3719,7 @@
         <v>1.0</v>
       </c>
       <c r="L62" s="7" t="n">
-        <v>9.82</v>
+        <v>10.67</v>
       </c>
       <c r="M62" s="9" t="s">
         <v>20</v>
@@ -3787,25 +3733,25 @@
         <v>14</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D63" s="6" t="n">
-        <v>1210.0</v>
+        <v>293.0</v>
       </c>
       <c r="E63" s="6" t="n">
-        <v>1420.0</v>
+        <v>326.0</v>
       </c>
       <c r="F63" s="7" t="n">
-        <v>1.17355372</v>
+        <v>1.11262799</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H63" s="8" t="n">
-        <v>9.81</v>
+        <v>10.47</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>18</v>
@@ -3814,10 +3760,10 @@
         <v>19</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M63" s="9" t="s">
         <v>20</v>
@@ -3831,25 +3777,25 @@
         <v>14</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D64" s="6" t="n">
-        <v>1481.0</v>
+        <v>400.0</v>
       </c>
       <c r="E64" s="6" t="n">
-        <v>1698.0</v>
+        <v>450.0</v>
       </c>
       <c r="F64" s="7" t="n">
-        <v>1.14652262</v>
+        <v>1.125</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H64" s="8" t="n">
-        <v>9.72</v>
+        <v>10.08</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>18</v>
@@ -3861,7 +3807,7 @@
         <v>1.0</v>
       </c>
       <c r="L64" s="7" t="n">
-        <v>9.72</v>
+        <v>10.08</v>
       </c>
       <c r="M64" s="9" t="s">
         <v>20</v>
@@ -3875,25 +3821,25 @@
         <v>14</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D65" s="6" t="n">
-        <v>708.0</v>
+        <v>1043.0</v>
       </c>
       <c r="E65" s="6" t="n">
-        <v>801.0</v>
+        <v>1238.0</v>
       </c>
       <c r="F65" s="7" t="n">
-        <v>1.13135593</v>
+        <v>1.18696069</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H65" s="8" t="n">
-        <v>9.78</v>
+        <v>9.64</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>18</v>
@@ -3901,11 +3847,11 @@
       <c r="J65" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K65" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>65</v>
+      <c r="K65" s="7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L65" s="7" t="n">
+        <v>9.64</v>
       </c>
       <c r="M65" s="9" t="s">
         <v>20</v>
@@ -3919,25 +3865,25 @@
         <v>14</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D66" s="6" t="n">
-        <v>738.0</v>
+        <v>605.0</v>
       </c>
       <c r="E66" s="6" t="n">
-        <v>1452.0</v>
+        <v>653.0</v>
       </c>
       <c r="F66" s="7" t="n">
-        <v>1.96747967</v>
+        <v>1.07933884</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H66" s="8" t="n">
-        <v>9.46</v>
+        <v>9.17</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>18</v>
@@ -3945,11 +3891,11 @@
       <c r="J66" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K66" s="7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L66" s="7" t="n">
-        <v>4.73</v>
+      <c r="K66" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="M66" s="9" t="s">
         <v>20</v>
@@ -3963,25 +3909,25 @@
         <v>14</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D67" s="6" t="n">
-        <v>420.0</v>
+        <v>1269.0</v>
       </c>
       <c r="E67" s="6" t="n">
-        <v>530.0</v>
+        <v>1415.0</v>
       </c>
       <c r="F67" s="7" t="n">
-        <v>1.26190476</v>
+        <v>1.11505122</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H67" s="8" t="n">
-        <v>9.36</v>
+        <v>9.0</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>18</v>
@@ -3989,11 +3935,11 @@
       <c r="J67" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K67" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L67" s="7" t="n">
-        <v>9.36</v>
+      <c r="K67" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="M67" s="9" t="s">
         <v>20</v>
@@ -4007,25 +3953,25 @@
         <v>14</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D68" s="6" t="n">
-        <v>1248.0</v>
+        <v>399.0</v>
       </c>
       <c r="E68" s="6" t="n">
-        <v>1334.0</v>
+        <v>675.0</v>
       </c>
       <c r="F68" s="7" t="n">
-        <v>1.06891026</v>
+        <v>1.69172932</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H68" s="8" t="n">
-        <v>9.34</v>
+        <v>8.76</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>18</v>
@@ -4033,11 +3979,11 @@
       <c r="J68" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K68" s="7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L68" s="7" t="n">
-        <v>4.67</v>
+      <c r="K68" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="M68" s="9" t="s">
         <v>20</v>
@@ -4051,25 +3997,25 @@
         <v>14</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D69" s="6" t="n">
-        <v>861.0</v>
+        <v>419.0</v>
       </c>
       <c r="E69" s="6" t="n">
-        <v>1043.0</v>
+        <v>524.0</v>
       </c>
       <c r="F69" s="7" t="n">
-        <v>1.21138211</v>
+        <v>1.25059666</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H69" s="8" t="n">
-        <v>9.34</v>
+        <v>8.32</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>18</v>
@@ -4077,11 +4023,11 @@
       <c r="J69" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K69" s="7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L69" s="7" t="n">
-        <v>3.11333333</v>
+      <c r="K69" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="M69" s="9" t="s">
         <v>20</v>
@@ -4095,25 +4041,25 @@
         <v>14</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D70" s="6" t="n">
-        <v>677.0</v>
+        <v>765.0</v>
       </c>
       <c r="E70" s="6" t="n">
-        <v>823.0</v>
+        <v>807.0</v>
       </c>
       <c r="F70" s="7" t="n">
-        <v>1.21565731</v>
+        <v>1.05490196</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H70" s="8" t="n">
-        <v>9.33</v>
+        <v>7.23</v>
       </c>
       <c r="I70" s="7" t="s">
         <v>18</v>
@@ -4122,10 +4068,10 @@
         <v>19</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M70" s="9" t="s">
         <v>20</v>
@@ -4136,40 +4082,40 @@
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D71" s="6" t="n">
-        <v>386.0</v>
+        <v>922.0</v>
       </c>
       <c r="E71" s="6" t="n">
-        <v>477.0</v>
+        <v>1197.0</v>
       </c>
       <c r="F71" s="7" t="n">
-        <v>1.2357513</v>
+        <v>1.29826464</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H71" s="8" t="n">
-        <v>7.4</v>
+        <v>7.19</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M71" s="9" t="s">
         <v>20</v>
@@ -4183,25 +4129,25 @@
         <v>14</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>146</v>
       </c>
       <c r="D72" s="6" t="n">
-        <v>521.0</v>
+        <v>700.0</v>
       </c>
       <c r="E72" s="6" t="n">
-        <v>708.0</v>
+        <v>773.0</v>
       </c>
       <c r="F72" s="7" t="n">
-        <v>1.35892514</v>
+        <v>1.10428571</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H72" s="8" t="n">
-        <v>7.38</v>
+        <v>6.92</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>18</v>
@@ -4210,10 +4156,10 @@
         <v>19</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M72" s="9" t="s">
         <v>20</v>
@@ -4227,25 +4173,25 @@
         <v>14</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D73" s="6" t="n">
-        <v>517.0</v>
+        <v>897.0</v>
       </c>
       <c r="E73" s="6" t="n">
-        <v>604.0</v>
+        <v>1013.0</v>
       </c>
       <c r="F73" s="7" t="n">
-        <v>1.16827853</v>
+        <v>1.12931996</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H73" s="8" t="n">
-        <v>7.31</v>
+        <v>6.78</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>18</v>
@@ -4257,7 +4203,7 @@
         <v>1.0</v>
       </c>
       <c r="L73" s="7" t="n">
-        <v>7.31</v>
+        <v>6.78</v>
       </c>
       <c r="M73" s="9" t="s">
         <v>20</v>
@@ -4271,25 +4217,25 @@
         <v>14</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>149</v>
       </c>
       <c r="D74" s="6" t="n">
-        <v>485.0</v>
+        <v>819.0</v>
       </c>
       <c r="E74" s="6" t="n">
-        <v>585.0</v>
+        <v>966.0</v>
       </c>
       <c r="F74" s="7" t="n">
-        <v>1.20618557</v>
+        <v>1.17948718</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H74" s="8" t="n">
-        <v>7.27</v>
+        <v>5.99</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>18</v>
@@ -4298,10 +4244,10 @@
         <v>19</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M74" s="9" t="s">
         <v>20</v>
@@ -4315,25 +4261,25 @@
         <v>14</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D75" s="6" t="n">
-        <v>656.0</v>
+        <v>472.0</v>
       </c>
       <c r="E75" s="6" t="n">
-        <v>729.0</v>
+        <v>678.0</v>
       </c>
       <c r="F75" s="7" t="n">
-        <v>1.11128049</v>
+        <v>1.43644068</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H75" s="8" t="n">
-        <v>7.04</v>
+        <v>5.97</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>18</v>
@@ -4341,11 +4287,11 @@
       <c r="J75" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K75" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L75" s="7" t="s">
-        <v>65</v>
+      <c r="K75" s="7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L75" s="7" t="n">
+        <v>1.4925</v>
       </c>
       <c r="M75" s="9" t="s">
         <v>20</v>
@@ -4359,25 +4305,25 @@
         <v>14</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D76" s="6" t="n">
-        <v>543.0</v>
+        <v>494.0</v>
       </c>
       <c r="E76" s="6" t="n">
-        <v>618.0</v>
+        <v>539.0</v>
       </c>
       <c r="F76" s="7" t="n">
-        <v>1.13812155</v>
+        <v>1.09109312</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H76" s="8" t="n">
-        <v>7.07</v>
+        <v>5.92</v>
       </c>
       <c r="I76" s="7" t="s">
         <v>18</v>
@@ -4385,11 +4331,11 @@
       <c r="J76" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K76" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L76" s="7" t="n">
-        <v>7.07</v>
+      <c r="K76" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L76" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="M76" s="9" t="s">
         <v>20</v>
@@ -4403,25 +4349,25 @@
         <v>14</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D77" s="6" t="n">
-        <v>1421.0</v>
+        <v>521.0</v>
       </c>
       <c r="E77" s="6" t="n">
-        <v>1534.0</v>
+        <v>588.0</v>
       </c>
       <c r="F77" s="7" t="n">
-        <v>1.07952146</v>
+        <v>1.12859885</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H77" s="8" t="n">
-        <v>6.94</v>
+        <v>5.45</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>18</v>
@@ -4430,10 +4376,10 @@
         <v>19</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M77" s="9" t="s">
         <v>20</v>
@@ -4444,40 +4390,40 @@
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D78" s="6" t="n">
-        <v>696.0</v>
+        <v>303.0</v>
       </c>
       <c r="E78" s="6" t="n">
-        <v>792.0</v>
+        <v>397.0</v>
       </c>
       <c r="F78" s="7" t="n">
-        <v>1.13793103</v>
+        <v>1.31023102</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H78" s="8" t="n">
-        <v>6.87</v>
+        <v>4.92</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J78" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M78" s="9" t="s">
         <v>20</v>
@@ -4491,25 +4437,25 @@
         <v>14</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D79" s="6" t="n">
-        <v>482.0</v>
+        <v>222.0</v>
       </c>
       <c r="E79" s="6" t="n">
-        <v>579.0</v>
+        <v>254.0</v>
       </c>
       <c r="F79" s="7" t="n">
-        <v>1.20124481</v>
+        <v>1.14414414</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H79" s="8" t="n">
-        <v>6.76</v>
+        <v>4.86</v>
       </c>
       <c r="I79" s="7" t="s">
         <v>18</v>
@@ -4517,11 +4463,11 @@
       <c r="J79" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K79" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L79" s="7" t="s">
-        <v>65</v>
+      <c r="K79" s="7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L79" s="7" t="n">
+        <v>2.43</v>
       </c>
       <c r="M79" s="9" t="s">
         <v>20</v>
@@ -4535,25 +4481,25 @@
         <v>14</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D80" s="6" t="n">
-        <v>332.0</v>
+        <v>550.0</v>
       </c>
       <c r="E80" s="6" t="n">
-        <v>393.0</v>
+        <v>597.0</v>
       </c>
       <c r="F80" s="7" t="n">
-        <v>1.18373494</v>
+        <v>1.08545455</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H80" s="8" t="n">
-        <v>6.7</v>
+        <v>4.85</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>18</v>
@@ -4562,10 +4508,10 @@
         <v>19</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M80" s="9" t="s">
         <v>20</v>
@@ -4579,25 +4525,25 @@
         <v>14</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D81" s="6" t="n">
-        <v>743.0</v>
+        <v>371.0</v>
       </c>
       <c r="E81" s="6" t="n">
-        <v>836.0</v>
+        <v>588.0</v>
       </c>
       <c r="F81" s="7" t="n">
-        <v>1.12516824</v>
+        <v>1.58490566</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H81" s="8" t="n">
-        <v>6.57</v>
+        <v>4.85</v>
       </c>
       <c r="I81" s="7" t="s">
         <v>18</v>
@@ -4605,11 +4551,11 @@
       <c r="J81" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K81" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L81" s="7" t="s">
-        <v>65</v>
+      <c r="K81" s="7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L81" s="7" t="n">
+        <v>4.85</v>
       </c>
       <c r="M81" s="9" t="s">
         <v>20</v>
@@ -4623,25 +4569,25 @@
         <v>14</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D82" s="6" t="n">
-        <v>685.0</v>
+        <v>583.0</v>
       </c>
       <c r="E82" s="6" t="n">
-        <v>742.0</v>
+        <v>630.0</v>
       </c>
       <c r="F82" s="7" t="n">
-        <v>1.08321168</v>
+        <v>1.0806175</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H82" s="8" t="n">
-        <v>6.22</v>
+        <v>4.82</v>
       </c>
       <c r="I82" s="7" t="s">
         <v>18</v>
@@ -4650,10 +4596,10 @@
         <v>19</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M82" s="9" t="s">
         <v>20</v>
@@ -4667,25 +4613,25 @@
         <v>14</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D83" s="6" t="n">
-        <v>413.0</v>
+        <v>590.0</v>
       </c>
       <c r="E83" s="6" t="n">
-        <v>503.0</v>
+        <v>659.0</v>
       </c>
       <c r="F83" s="7" t="n">
-        <v>1.21791768</v>
+        <v>1.11694915</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H83" s="8" t="n">
-        <v>5.16</v>
+        <v>4.26</v>
       </c>
       <c r="I83" s="7" t="s">
         <v>18</v>
@@ -4694,10 +4640,10 @@
         <v>19</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M83" s="9" t="s">
         <v>20</v>
@@ -4711,25 +4657,25 @@
         <v>14</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D84" s="6" t="n">
-        <v>508.0</v>
+        <v>292.0</v>
       </c>
       <c r="E84" s="6" t="n">
-        <v>582.0</v>
+        <v>328.0</v>
       </c>
       <c r="F84" s="7" t="n">
-        <v>1.14566929</v>
+        <v>1.12328767</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H84" s="8" t="n">
-        <v>5.13</v>
+        <v>4.07</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>18</v>
@@ -4738,10 +4684,10 @@
         <v>19</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M84" s="9" t="s">
         <v>20</v>
@@ -4755,25 +4701,25 @@
         <v>14</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D85" s="6" t="n">
-        <v>469.0</v>
+        <v>203.0</v>
       </c>
       <c r="E85" s="6" t="n">
-        <v>556.0</v>
+        <v>248.0</v>
       </c>
       <c r="F85" s="7" t="n">
-        <v>1.18550107</v>
+        <v>1.22167488</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H85" s="8" t="n">
-        <v>5.11</v>
+        <v>4.07</v>
       </c>
       <c r="I85" s="7" t="s">
         <v>18</v>
@@ -4782,10 +4728,10 @@
         <v>19</v>
       </c>
       <c r="K85" s="7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L85" s="7" t="n">
-        <v>2.555</v>
+        <v>4.07</v>
       </c>
       <c r="M85" s="9" t="s">
         <v>20</v>
@@ -4799,25 +4745,25 @@
         <v>14</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D86" s="6" t="n">
-        <v>179.0</v>
+        <v>347.0</v>
       </c>
       <c r="E86" s="6" t="n">
-        <v>211.0</v>
+        <v>369.0</v>
       </c>
       <c r="F86" s="7" t="n">
-        <v>1.17877095</v>
+        <v>1.06340058</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H86" s="8" t="n">
-        <v>5.02</v>
+        <v>4.06</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>18</v>
@@ -4825,11 +4771,11 @@
       <c r="J86" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K86" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L86" s="7" t="s">
-        <v>65</v>
+      <c r="K86" s="7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L86" s="7" t="n">
+        <v>4.06</v>
       </c>
       <c r="M86" s="9" t="s">
         <v>20</v>
@@ -4843,37 +4789,37 @@
         <v>14</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D87" s="6" t="n">
-        <v>206.0</v>
+        <v>362.0</v>
       </c>
       <c r="E87" s="6" t="n">
-        <v>238.0</v>
+        <v>400.0</v>
       </c>
       <c r="F87" s="7" t="n">
-        <v>1.15533981</v>
+        <v>1.10497238</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H87" s="8" t="n">
-        <v>4.69</v>
+        <v>4.06</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J87" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K87" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L87" s="7" t="s">
-        <v>65</v>
+      <c r="K87" s="7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L87" s="7" t="n">
+        <v>4.06</v>
       </c>
       <c r="M87" s="9" t="s">
         <v>20</v>
@@ -4887,25 +4833,25 @@
         <v>14</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D88" s="6" t="n">
-        <v>598.0</v>
+        <v>221.0</v>
       </c>
       <c r="E88" s="6" t="n">
-        <v>668.0</v>
+        <v>276.0</v>
       </c>
       <c r="F88" s="7" t="n">
-        <v>1.11705686</v>
+        <v>1.24886878</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H88" s="8" t="n">
-        <v>4.61</v>
+        <v>4.02</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>18</v>
@@ -4914,10 +4860,10 @@
         <v>19</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M88" s="9" t="s">
         <v>20</v>
@@ -4931,37 +4877,37 @@
         <v>14</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>168</v>
+        <v>70</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D89" s="6" t="n">
-        <v>419.0</v>
+        <v>247.0</v>
       </c>
       <c r="E89" s="6" t="n">
-        <v>461.0</v>
+        <v>268.0</v>
       </c>
       <c r="F89" s="7" t="n">
-        <v>1.10023866</v>
+        <v>1.08502024</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H89" s="8" t="n">
-        <v>4.6</v>
+        <v>4.01</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J89" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K89" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L89" s="7" t="n">
-        <v>4.6</v>
+      <c r="K89" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L89" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="M89" s="9" t="s">
         <v>20</v>
@@ -4975,25 +4921,25 @@
         <v>14</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D90" s="6" t="n">
-        <v>329.0</v>
+        <v>309.0</v>
       </c>
       <c r="E90" s="6" t="n">
-        <v>347.0</v>
+        <v>354.0</v>
       </c>
       <c r="F90" s="7" t="n">
-        <v>1.05471125</v>
+        <v>1.14563107</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H90" s="8" t="n">
-        <v>4.6</v>
+        <v>4.0</v>
       </c>
       <c r="I90" s="7" t="s">
         <v>18</v>
@@ -5002,10 +4948,10 @@
         <v>19</v>
       </c>
       <c r="K90" s="7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="L90" s="7" t="n">
-        <v>1.53333333</v>
+        <v>4.0</v>
       </c>
       <c r="M90" s="9" t="s">
         <v>20</v>
@@ -5019,25 +4965,25 @@
         <v>14</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D91" s="6" t="n">
-        <v>400.0</v>
+        <v>565.0</v>
       </c>
       <c r="E91" s="6" t="n">
-        <v>467.0</v>
+        <v>698.0</v>
       </c>
       <c r="F91" s="7" t="n">
-        <v>1.1675</v>
+        <v>1.23539823</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H91" s="8" t="n">
-        <v>4.45</v>
+        <v>3.93</v>
       </c>
       <c r="I91" s="7" t="s">
         <v>18</v>
@@ -5046,10 +4992,10 @@
         <v>19</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M91" s="9" t="s">
         <v>20</v>
@@ -5063,37 +5009,37 @@
         <v>14</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D92" s="6" t="n">
-        <v>336.0</v>
+        <v>426.0</v>
       </c>
       <c r="E92" s="6" t="n">
-        <v>523.0</v>
+        <v>482.0</v>
       </c>
       <c r="F92" s="7" t="n">
-        <v>1.55654762</v>
+        <v>1.1314554</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H92" s="8" t="n">
-        <v>4.37</v>
+        <v>3.93</v>
       </c>
       <c r="I92" s="7" t="s">
         <v>18</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M92" s="9" t="s">
         <v>20</v>
@@ -5110,22 +5056,22 @@
         <v>172</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D93" s="6" t="n">
-        <v>252.0</v>
+        <v>311.0</v>
       </c>
       <c r="E93" s="6" t="n">
-        <v>292.0</v>
+        <v>396.0</v>
       </c>
       <c r="F93" s="7" t="n">
-        <v>1.15873016</v>
+        <v>1.2733119</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H93" s="8" t="n">
-        <v>4.22</v>
+        <v>3.69</v>
       </c>
       <c r="I93" s="7" t="s">
         <v>18</v>
@@ -5134,10 +5080,10 @@
         <v>19</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M93" s="9" t="s">
         <v>20</v>
@@ -5151,25 +5097,25 @@
         <v>14</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D94" s="6" t="n">
-        <v>564.0</v>
+        <v>236.0</v>
       </c>
       <c r="E94" s="6" t="n">
-        <v>599.0</v>
+        <v>265.0</v>
       </c>
       <c r="F94" s="7" t="n">
-        <v>1.06205674</v>
+        <v>1.12288136</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H94" s="8" t="n">
-        <v>4.2</v>
+        <v>3.62</v>
       </c>
       <c r="I94" s="7" t="s">
         <v>18</v>
@@ -5178,10 +5124,10 @@
         <v>19</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M94" s="9" t="s">
         <v>20</v>
@@ -5195,25 +5141,25 @@
         <v>14</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D95" s="6" t="n">
-        <v>539.0</v>
+        <v>137.0</v>
       </c>
       <c r="E95" s="6" t="n">
-        <v>571.0</v>
+        <v>143.0</v>
       </c>
       <c r="F95" s="7" t="n">
-        <v>1.0593692</v>
+        <v>1.04379562</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H95" s="8" t="n">
-        <v>4.05</v>
+        <v>3.61</v>
       </c>
       <c r="I95" s="7" t="s">
         <v>18</v>
@@ -5222,10 +5168,10 @@
         <v>19</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M95" s="9" t="s">
         <v>20</v>
@@ -5239,25 +5185,25 @@
         <v>14</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D96" s="6" t="n">
-        <v>529.0</v>
+        <v>486.0</v>
       </c>
       <c r="E96" s="6" t="n">
-        <v>619.0</v>
+        <v>551.0</v>
       </c>
       <c r="F96" s="7" t="n">
-        <v>1.17013233</v>
+        <v>1.13374486</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H96" s="8" t="n">
-        <v>4.03</v>
+        <v>3.54</v>
       </c>
       <c r="I96" s="7" t="s">
         <v>18</v>
@@ -5266,10 +5212,10 @@
         <v>19</v>
       </c>
       <c r="K96" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M96" s="9" t="s">
         <v>20</v>
@@ -5283,25 +5229,25 @@
         <v>14</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D97" s="6" t="n">
-        <v>179.0</v>
+        <v>100.0</v>
       </c>
       <c r="E97" s="6" t="n">
-        <v>191.0</v>
+        <v>110.0</v>
       </c>
       <c r="F97" s="7" t="n">
-        <v>1.06703911</v>
+        <v>1.1</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H97" s="8" t="n">
-        <v>3.91</v>
+        <v>3.35</v>
       </c>
       <c r="I97" s="7" t="s">
         <v>18</v>
@@ -5310,10 +5256,10 @@
         <v>19</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M97" s="9" t="s">
         <v>20</v>
@@ -5327,25 +5273,25 @@
         <v>14</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>184</v>
+        <v>68</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>185</v>
       </c>
       <c r="D98" s="6" t="n">
-        <v>319.0</v>
+        <v>189.0</v>
       </c>
       <c r="E98" s="6" t="n">
-        <v>387.0</v>
+        <v>265.0</v>
       </c>
       <c r="F98" s="7" t="n">
-        <v>1.21316614</v>
+        <v>1.4021164</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H98" s="8" t="n">
-        <v>3.8</v>
+        <v>3.28</v>
       </c>
       <c r="I98" s="7" t="s">
         <v>18</v>
@@ -5354,10 +5300,10 @@
         <v>19</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M98" s="9" t="s">
         <v>20</v>
@@ -5368,40 +5314,40 @@
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C99" s="5" t="s">
-        <v>187</v>
-      </c>
       <c r="D99" s="6" t="n">
-        <v>285.0</v>
+        <v>120.0</v>
       </c>
       <c r="E99" s="6" t="n">
-        <v>374.0</v>
+        <v>127.0</v>
       </c>
       <c r="F99" s="7" t="n">
-        <v>1.3122807</v>
+        <v>1.05833333</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H99" s="8" t="n">
-        <v>3.8</v>
+        <v>3.21</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J99" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M99" s="9" t="s">
         <v>20</v>
@@ -5415,25 +5361,25 @@
         <v>14</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>188</v>
       </c>
       <c r="D100" s="6" t="n">
-        <v>394.0</v>
+        <v>247.0</v>
       </c>
       <c r="E100" s="6" t="n">
-        <v>439.0</v>
+        <v>396.0</v>
       </c>
       <c r="F100" s="7" t="n">
-        <v>1.1142132</v>
+        <v>1.60323887</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H100" s="8" t="n">
-        <v>3.78</v>
+        <v>3.15</v>
       </c>
       <c r="I100" s="7" t="s">
         <v>18</v>
@@ -5441,11 +5387,11 @@
       <c r="J100" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K100" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L100" s="7" t="n">
-        <v>3.78</v>
+      <c r="K100" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L100" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="M100" s="9" t="s">
         <v>20</v>
@@ -5459,25 +5405,25 @@
         <v>14</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>189</v>
       </c>
       <c r="D101" s="6" t="n">
-        <v>205.0</v>
+        <v>204.0</v>
       </c>
       <c r="E101" s="6" t="n">
-        <v>229.0</v>
+        <v>225.0</v>
       </c>
       <c r="F101" s="7" t="n">
-        <v>1.11707317</v>
+        <v>1.10294118</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H101" s="8" t="n">
-        <v>3.76</v>
+        <v>3.12</v>
       </c>
       <c r="I101" s="7" t="s">
         <v>18</v>
@@ -5486,10 +5432,10 @@
         <v>19</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M101" s="9" t="s">
         <v>20</v>
@@ -5503,25 +5449,25 @@
         <v>14</v>
       </c>
       <c r="B102" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="D102" s="6" t="n">
-        <v>280.0</v>
+        <v>467.0</v>
       </c>
       <c r="E102" s="6" t="n">
-        <v>452.0</v>
+        <v>492.0</v>
       </c>
       <c r="F102" s="7" t="n">
-        <v>1.61428571</v>
+        <v>1.05353319</v>
       </c>
       <c r="G102" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H102" s="8" t="n">
-        <v>3.77</v>
+        <v>3.07</v>
       </c>
       <c r="I102" s="7" t="s">
         <v>18</v>
@@ -5530,10 +5476,10 @@
         <v>19</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M102" s="9" t="s">
         <v>20</v>
@@ -5544,7 +5490,7 @@
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>192</v>
@@ -5553,31 +5499,31 @@
         <v>193</v>
       </c>
       <c r="D103" s="6" t="n">
-        <v>119.0</v>
+        <v>306.0</v>
       </c>
       <c r="E103" s="6" t="n">
-        <v>146.0</v>
+        <v>346.0</v>
       </c>
       <c r="F103" s="7" t="n">
-        <v>1.22689076</v>
+        <v>1.13071895</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H103" s="8" t="n">
-        <v>3.65</v>
+        <v>3.07</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J103" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K103" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L103" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M103" s="9" t="s">
         <v>20</v>
@@ -5591,25 +5537,25 @@
         <v>14</v>
       </c>
       <c r="B104" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>195</v>
-      </c>
       <c r="D104" s="6" t="n">
-        <v>127.0</v>
+        <v>203.0</v>
       </c>
       <c r="E104" s="6" t="n">
-        <v>147.0</v>
+        <v>271.0</v>
       </c>
       <c r="F104" s="7" t="n">
-        <v>1.15748031</v>
+        <v>1.33497537</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H104" s="8" t="n">
-        <v>3.53</v>
+        <v>3.04</v>
       </c>
       <c r="I104" s="7" t="s">
         <v>18</v>
@@ -5618,10 +5564,10 @@
         <v>19</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M104" s="9" t="s">
         <v>20</v>
@@ -5635,25 +5581,25 @@
         <v>14</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>196</v>
       </c>
       <c r="D105" s="6" t="n">
-        <v>491.0</v>
+        <v>87.0</v>
       </c>
       <c r="E105" s="6" t="n">
-        <v>516.0</v>
+        <v>110.0</v>
       </c>
       <c r="F105" s="7" t="n">
-        <v>1.0509165</v>
+        <v>1.26436782</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H105" s="8" t="n">
-        <v>3.41</v>
+        <v>2.93</v>
       </c>
       <c r="I105" s="7" t="s">
         <v>18</v>
@@ -5662,10 +5608,10 @@
         <v>19</v>
       </c>
       <c r="K105" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L105" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M105" s="9" t="s">
         <v>20</v>
@@ -5685,31 +5631,31 @@
         <v>198</v>
       </c>
       <c r="D106" s="6" t="n">
-        <v>503.0</v>
+        <v>61.0</v>
       </c>
       <c r="E106" s="6" t="n">
-        <v>547.0</v>
+        <v>67.0</v>
       </c>
       <c r="F106" s="7" t="n">
-        <v>1.08747515</v>
+        <v>1.09836066</v>
       </c>
       <c r="G106" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H106" s="8" t="n">
-        <v>3.22</v>
+        <v>1.11</v>
       </c>
       <c r="I106" s="7" t="s">
         <v>18</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="K106" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L106" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M106" s="9" t="s">
         <v>20</v>
@@ -5723,37 +5669,37 @@
         <v>14</v>
       </c>
       <c r="B107" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="D107" s="6" t="n">
-        <v>140.0</v>
+        <v>15.0</v>
       </c>
       <c r="E107" s="6" t="n">
-        <v>151.0</v>
+        <v>16.0</v>
       </c>
       <c r="F107" s="7" t="n">
-        <v>1.07857143</v>
+        <v>1.06666667</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H107" s="8" t="n">
-        <v>3.18</v>
+        <v>0.35</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J107" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K107" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L107" s="7" t="n">
-        <v>3.18</v>
+      <c r="K107" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L107" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="M107" s="9" t="s">
         <v>20</v>
@@ -5767,37 +5713,37 @@
         <v>14</v>
       </c>
       <c r="B108" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>202</v>
-      </c>
       <c r="D108" s="6" t="n">
-        <v>160.0</v>
+        <v>27.0</v>
       </c>
       <c r="E108" s="6" t="n">
-        <v>251.0</v>
+        <v>42.0</v>
       </c>
       <c r="F108" s="7" t="n">
-        <v>1.56875</v>
+        <v>1.55555556</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H108" s="8" t="n">
-        <v>3.15</v>
+        <v>0.26</v>
       </c>
       <c r="I108" s="7" t="s">
         <v>18</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="K108" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L108" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M108" s="9" t="s">
         <v>20</v>
@@ -5811,37 +5757,37 @@
         <v>14</v>
       </c>
       <c r="B109" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="D109" s="6" t="n">
-        <v>134.0</v>
+        <v>16.0</v>
       </c>
       <c r="E109" s="6" t="n">
-        <v>170.0</v>
+        <v>18.0</v>
       </c>
       <c r="F109" s="7" t="n">
-        <v>1.26865672</v>
+        <v>1.125</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H109" s="8" t="n">
-        <v>3.14</v>
+        <v>0.15</v>
       </c>
       <c r="I109" s="7" t="s">
         <v>18</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="K109" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L109" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M109" s="9" t="s">
         <v>20</v>
@@ -5855,25 +5801,25 @@
         <v>14</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D110" s="6" t="n">
-        <v>162.0</v>
+        <v>6.0</v>
       </c>
       <c r="E110" s="6" t="n">
-        <v>181.0</v>
+        <v>6.0</v>
       </c>
       <c r="F110" s="7" t="n">
-        <v>1.11728395</v>
+        <v>1.0</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H110" s="8" t="n">
-        <v>3.12</v>
+        <v>0.09</v>
       </c>
       <c r="I110" s="7" t="s">
         <v>18</v>
@@ -5882,10 +5828,10 @@
         <v>19</v>
       </c>
       <c r="K110" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M110" s="9" t="s">
         <v>20</v>
@@ -5899,25 +5845,25 @@
         <v>14</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D111" s="6" t="n">
-        <v>647.0</v>
+        <v>20.0</v>
       </c>
       <c r="E111" s="6" t="n">
-        <v>678.0</v>
+        <v>20.0</v>
       </c>
       <c r="F111" s="7" t="n">
-        <v>1.04791345</v>
+        <v>1.0</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H111" s="8" t="n">
-        <v>3.11</v>
+        <v>0.04</v>
       </c>
       <c r="I111" s="7" t="s">
         <v>18</v>
@@ -5926,10 +5872,10 @@
         <v>19</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L111" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M111" s="9" t="s">
         <v>20</v>
@@ -5943,25 +5889,25 @@
         <v>14</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D112" s="6" t="n">
-        <v>578.0</v>
+        <v>2.0</v>
       </c>
       <c r="E112" s="6" t="n">
-        <v>639.0</v>
+        <v>2.0</v>
       </c>
       <c r="F112" s="7" t="n">
-        <v>1.10553633</v>
+        <v>1.0</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H112" s="8" t="n">
-        <v>3.04</v>
+        <v>0.01</v>
       </c>
       <c r="I112" s="7" t="s">
         <v>18</v>
@@ -5970,587 +5916,15 @@
         <v>19</v>
       </c>
       <c r="K112" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L112" s="7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M112" s="9" t="s">
         <v>20</v>
       </c>
       <c r="N112" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D113" s="6" t="n">
-        <v>185.0</v>
-      </c>
-      <c r="E113" s="6" t="n">
-        <v>220.0</v>
-      </c>
-      <c r="F113" s="7" t="n">
-        <v>1.18918919</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H113" s="8" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I113" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J113" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K113" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L113" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M113" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N113" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D114" s="6" t="n">
-        <v>216.0</v>
-      </c>
-      <c r="E114" s="6" t="n">
-        <v>218.0</v>
-      </c>
-      <c r="F114" s="7" t="n">
-        <v>1.00925926</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H114" s="8" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="I114" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J114" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K114" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L114" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M114" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N114" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D115" s="6" t="n">
-        <v>276.0</v>
-      </c>
-      <c r="E115" s="6" t="n">
-        <v>308.0</v>
-      </c>
-      <c r="F115" s="7" t="n">
-        <v>1.11594203</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H115" s="8" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="I115" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J115" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K115" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L115" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M115" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N115" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D116" s="6" t="n">
-        <v>207.0</v>
-      </c>
-      <c r="E116" s="6" t="n">
-        <v>237.0</v>
-      </c>
-      <c r="F116" s="7" t="n">
-        <v>1.14492754</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H116" s="8" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="I116" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J116" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K116" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L116" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M116" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N116" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D117" s="6" t="n">
-        <v>413.0</v>
-      </c>
-      <c r="E117" s="6" t="n">
-        <v>446.0</v>
-      </c>
-      <c r="F117" s="7" t="n">
-        <v>1.07990315</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H117" s="8" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="I117" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J117" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K117" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L117" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M117" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N117" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D118" s="6" t="n">
-        <v>198.0</v>
-      </c>
-      <c r="E118" s="6" t="n">
-        <v>222.0</v>
-      </c>
-      <c r="F118" s="7" t="n">
-        <v>1.12121212</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H118" s="8" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="I118" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J118" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K118" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L118" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M118" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N118" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D119" s="6" t="n">
-        <v>459.0</v>
-      </c>
-      <c r="E119" s="6" t="n">
-        <v>585.0</v>
-      </c>
-      <c r="F119" s="7" t="n">
-        <v>1.2745098</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H119" s="8" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I119" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J119" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K119" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L119" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M119" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N119" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D120" s="6" t="n">
-        <v>313.0</v>
-      </c>
-      <c r="E120" s="6" t="n">
-        <v>343.0</v>
-      </c>
-      <c r="F120" s="7" t="n">
-        <v>1.09584665</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H120" s="8" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="I120" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J120" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K120" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L120" s="7" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="M120" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N120" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D121" s="6" t="n">
-        <v>164.0</v>
-      </c>
-      <c r="E121" s="6" t="n">
-        <v>170.0</v>
-      </c>
-      <c r="F121" s="7" t="n">
-        <v>1.03658537</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H121" s="8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I121" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J121" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K121" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L121" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M121" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N121" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D122" s="6" t="n">
-        <v>319.0</v>
-      </c>
-      <c r="E122" s="6" t="n">
-        <v>345.0</v>
-      </c>
-      <c r="F122" s="7" t="n">
-        <v>1.0815047</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H122" s="8" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="I122" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J122" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K122" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L122" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M122" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N122" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D123" s="6" t="n">
-        <v>791.0</v>
-      </c>
-      <c r="E123" s="6" t="n">
-        <v>839.0</v>
-      </c>
-      <c r="F123" s="7" t="n">
-        <v>1.06068268</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H123" s="8" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="I123" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J123" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K123" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L123" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M123" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N123" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D124" s="6" t="n">
-        <v>107.0</v>
-      </c>
-      <c r="E124" s="6" t="n">
-        <v>109.0</v>
-      </c>
-      <c r="F124" s="7" t="n">
-        <v>1.01869159</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H124" s="8" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="I124" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J124" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K124" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L124" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M124" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N124" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D125" s="6" t="n">
-        <v>175.0</v>
-      </c>
-      <c r="E125" s="6" t="n">
-        <v>182.0</v>
-      </c>
-      <c r="F125" s="7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H125" s="8" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I125" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J125" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K125" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L125" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M125" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N125" s="9" t="s">
         <v>20</v>
       </c>
     </row>
